--- a/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
+++ b/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -68,544 +68,562 @@
     <t xml:space="preserve">12</t>
   </si>
   <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p41a_nivel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p41a_nivel_act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nivel_edu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p41b_curso_act</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p41b_curso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p49_ocu_1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocu_1d_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocu_1d_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_nac_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40501</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_eco_2d_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">act_eco_2d_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_lab_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21951.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999995</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p40_lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p26_edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_res5_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edad_qui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_res_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21901.75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70128.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p51_actec_2d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_mun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2260</t>
+  </si>
+  <si>
+    <t xml:space="preserve">character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idioma_mayor_uso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">998</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p331_idiohab1_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_nac_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">601</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9999</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p361_anres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1930</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idioma_mat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p341_idiomat_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gedadedu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_lab_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9997</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_edad_bol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_res5_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_res_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19c_compu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p42c_camina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID_prov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p332_idiohab2_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">g_edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p50_catocu_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p38_asiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p53_ecivil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p42d_comuni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p50_semp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p24_parentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v10_combus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v11_basura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v06_piso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19e_inetfijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asiste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v16_desague</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18j_lavadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19e_f</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p42b_oir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p31_afiliado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p45_agro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">urbrur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p32_pueblos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19b_tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19f_inetmovil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30b_caja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18f_refri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p42_discap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p32_pueblo_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p42a_ver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v03_pared</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p43_pago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18g_micro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v15_servsan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p32_pueblo_per</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iprov</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
-    <t xml:space="preserve">p41a_nivel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p41a_nivel_act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nivel_edu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p41b_curso_act</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p41b_curso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_lab_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">41001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p49_ocu_1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocu_1d_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocu_1d_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act_eco_2d_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">act_eco_2d_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_nac_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21375.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60301.25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_res_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_res5_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21601</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p26_edad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p40_lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_mun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edad_qui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p51_actec_2d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p361_anres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1929</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_lab_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idioma_mayor_uso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">998</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p331_idiohab1_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gedadedu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idioma_mat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_nac_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">603</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p341_idiomat_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_res5_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_res_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_edad_bol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19c_compu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID_prov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p38_asiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_edad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p42c_camina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p53_ecivil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v06_piso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v10_combus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p42d_comuni</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p50_catocu_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p24_parentes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19e_inetfijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p50_semp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18j_lavadora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asiste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">urbrur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v16_desague</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p42b_oir</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v11_basura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p42_discap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p31_afiliado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v03_pared</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p45_agro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18f_refri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19e_f</t>
-  </si>
-  <si>
-    <t xml:space="preserve">iprov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19b_tv</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p32_pueblo_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p42a_ver</t>
+    <t xml:space="preserve">v08_aguadist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tot_pers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p52_mov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19g_tvcable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v04_revoq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v17_tenencia</t>
   </si>
   <si>
     <t xml:space="preserve">v18c_auto</t>
   </si>
   <si>
-    <t xml:space="preserve">v18g_micro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v15_servsan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p30b_caja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v08_aguadist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19g_tvcable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p32_pueblos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">49</t>
-  </si>
-  <si>
     <t xml:space="preserve">v01_tipoviv</t>
   </si>
   <si>
+    <t xml:space="preserve">v09_energia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19d_celular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19h_d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dep_nac_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dep_lab_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v14_dormit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18i_aire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dep_res_cod</t>
+  </si>
+  <si>
     <t xml:space="preserve">v07_aguapro</t>
   </si>
   <si>
-    <t xml:space="preserve">v19f_inetmovil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p43_pago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19h_d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19d_celular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tot_pers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p52_mov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v14_dormit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v09_energia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v04_revoq</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v17_tenencia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dep_lab_cod</t>
+    <t xml:space="preserve">dep_res5_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">condact_19</t>
   </si>
   <si>
     <t xml:space="preserve">v05_techo</t>
   </si>
   <si>
-    <t xml:space="preserve">dep_nac_cod</t>
+    <t xml:space="preserve">v18a_bici</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18h_calefon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tip_hog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p37_lugres5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p25_sexo</t>
   </si>
   <si>
     <t xml:space="preserve">p30c_privad</t>
   </si>
   <si>
-    <t xml:space="preserve">condact_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18h_calefon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18a_bici</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tip_hog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idep</t>
+    <t xml:space="preserve">v13_habitac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18b_moto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19a_radio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v19h_telfijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30d_atedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p36_lugres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v20a_emi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30f_autome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30e_tradic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p35_lugnac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p44_nego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p29_ci</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p30g_casera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18d_carreta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p28_cn</t>
   </si>
   <si>
     <t xml:space="preserve">p30a_public</t>
   </si>
   <si>
-    <t xml:space="preserve">p32_pueblo_per</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dep_res_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dep_res5_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19h_telfijo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p35_lugnac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p25_sexo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v13_habitac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p37_lugres5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18b_moto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18i_aire</t>
-  </si>
-  <si>
-    <t xml:space="preserve">imun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v19a_radio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p30d_atedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p30f_autome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p30g_casera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p36_lugres</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18d_carreta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v20a_emi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p29_ci</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p30e_tradic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p44_nego</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p28_cn</t>
+    <t xml:space="preserve">condact_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pea_13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v12_cocina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v18e_bote</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v21a_fal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p31_cobersalud</t>
   </si>
   <si>
     <t xml:space="preserve">pet_19</t>
   </si>
   <si>
-    <t xml:space="preserve">condact_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pea_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v18e_bote</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p31_cobersalud</t>
-  </si>
-  <si>
     <t xml:space="preserve">ft_19</t>
   </si>
   <si>
     <t xml:space="preserve">pet_13</t>
   </si>
   <si>
-    <t xml:space="preserve">v12_cocina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v21a_fal</t>
-  </si>
-  <si>
     <t xml:space="preserve">i00</t>
   </si>
   <si>
-    <t xml:space="preserve">3297</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1933251</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3279409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3931311.75</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4492569</t>
+    <t xml:space="preserve">3298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1919988.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3271369.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3940362.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4492192</t>
   </si>
   <si>
     <t xml:space="preserve">v02_condocup</t>
@@ -995,10 +1013,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -1010,7 +1028,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="n">
-        <v>8.961</v>
+        <v>8.988</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -1019,7 +1037,7 @@
         <v>18</v>
       </c>
       <c r="M2" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1027,19 +1045,19 @@
         <v>19</v>
       </c>
       <c r="B3" t="n">
-        <v>0.769</v>
+        <v>0.754</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.923</v>
+        <v>0.925</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
         <v>20</v>
@@ -1051,7 +1069,7 @@
         <v>21</v>
       </c>
       <c r="J3" t="n">
-        <v>8.549</v>
+        <v>7.047</v>
       </c>
       <c r="K3" t="s">
         <v>21</v>
@@ -1068,19 +1086,19 @@
         <v>23</v>
       </c>
       <c r="B4" t="n">
-        <v>0.689</v>
+        <v>0.693</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.911</v>
+        <v>0.913</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
         <v>20</v>
@@ -1092,7 +1110,7 @@
         <v>21</v>
       </c>
       <c r="J4" t="n">
-        <v>9.222</v>
+        <v>7.723</v>
       </c>
       <c r="K4" t="s">
         <v>21</v>
@@ -1115,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.899</v>
+        <v>0.898</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -1133,7 +1151,7 @@
         <v>27</v>
       </c>
       <c r="J5" t="n">
-        <v>2.772</v>
+        <v>2.778</v>
       </c>
       <c r="K5" t="s">
         <v>27</v>
@@ -1142,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="M5" t="n">
-        <v>0.054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1150,19 +1168,19 @@
         <v>29</v>
       </c>
       <c r="B6" t="n">
-        <v>0.256</v>
+        <v>0.207</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.356</v>
+        <v>0.307</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
         <v>14</v>
@@ -1174,13 +1192,13 @@
         <v>28</v>
       </c>
       <c r="J6" t="n">
-        <v>3.903</v>
+        <v>3.802</v>
       </c>
       <c r="K6" t="s">
         <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1188,22 +1206,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.34</v>
+        <v>0.296</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
         <v>14</v>
@@ -1215,13 +1233,13 @@
         <v>28</v>
       </c>
       <c r="J7" t="n">
-        <v>3.865</v>
+        <v>3.726</v>
       </c>
       <c r="K7" t="s">
         <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1229,48 +1247,48 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.293</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.658</v>
+      </c>
+      <c r="K8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.297</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>289</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>36</v>
-      </c>
-      <c r="J8" t="n">
-        <v>70528.877</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" t="s">
-        <v>38</v>
-      </c>
       <c r="M8" t="n">
-        <v>0.384</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B9" t="n">
         <v>0.002</v>
@@ -1279,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.296</v>
+        <v>0.293</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1297,30 +1315,30 @@
         <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>10.642</v>
+        <v>9.658</v>
       </c>
       <c r="K9" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M9" t="n">
-        <v>0.326</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.296</v>
+        <v>0.288</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1332,83 +1350,83 @@
         <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
         <v>30</v>
       </c>
       <c r="J10" t="n">
-        <v>10.699</v>
+        <v>9.205</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M10" t="n">
-        <v>0.334</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B11" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.286</v>
+        <v>0.274</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
         <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="I11" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
-        <v>10.108</v>
+        <v>46418.892</v>
       </c>
       <c r="K11" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M11" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>0.035</v>
+        <v>0.009</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.265</v>
+        <v>0.27</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
         <v>20</v>
@@ -1420,36 +1438,36 @@
         <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>10.693</v>
+        <v>9.793</v>
       </c>
       <c r="K12" t="s">
         <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M12" t="n">
-        <v>0.334</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>0.041</v>
+        <v>0.016</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.263</v>
+        <v>0.269</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
         <v>20</v>
@@ -1461,21 +1479,21 @@
         <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>9.581</v>
+        <v>8.806</v>
       </c>
       <c r="K13" t="s">
         <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="M13" t="n">
-        <v>0.237</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
         <v>0.002</v>
@@ -1484,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.26</v>
+        <v>0.257</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>359</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
         <v>45</v>
@@ -1502,7 +1520,7 @@
         <v>46</v>
       </c>
       <c r="J14" t="n">
-        <v>47166.588</v>
+        <v>72304.121</v>
       </c>
       <c r="K14" t="s">
         <v>47</v>
@@ -1511,7 +1529,7 @@
         <v>48</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="15">
@@ -1519,37 +1537,37 @@
         <v>49</v>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.104</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.251</v>
+        <v>0.239</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>336</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="n">
+        <v>1.099</v>
+      </c>
+      <c r="K15" t="s">
+        <v>20</v>
+      </c>
+      <c r="L15" t="s">
         <v>50</v>
-      </c>
-      <c r="I15" t="s">
-        <v>36</v>
-      </c>
-      <c r="J15" t="n">
-        <v>47721.942</v>
-      </c>
-      <c r="K15" t="s">
-        <v>51</v>
-      </c>
-      <c r="L15" t="s">
-        <v>48</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1557,25 +1575,25 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>73</v>
+      </c>
+      <c r="G16" t="s">
         <v>52</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>341</v>
-      </c>
-      <c r="G16" t="s">
-        <v>14</v>
       </c>
       <c r="H16" t="s">
         <v>53</v>
@@ -1584,13 +1602,13 @@
         <v>54</v>
       </c>
       <c r="J16" t="n">
-        <v>46250.867</v>
+        <v>42.52</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1598,40 +1616,40 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>0.21</v>
+        <v>0.001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>78</v>
+        <v>344</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J17" t="n">
-        <v>41.789</v>
+        <v>47570.256</v>
       </c>
       <c r="K17" t="s">
         <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -1639,40 +1657,40 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" t="n">
+        <v>9.104</v>
+      </c>
+      <c r="K18" t="s">
         <v>61</v>
       </c>
-      <c r="B18" t="n">
-        <v>0.098</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.238</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-      <c r="H18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
-        <v>20</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.197</v>
-      </c>
-      <c r="K18" t="s">
-        <v>20</v>
-      </c>
       <c r="L18" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -1683,72 +1701,78 @@
         <v>62</v>
       </c>
       <c r="B19" t="n">
-        <v>0.23</v>
+        <v>0.003</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.23</v>
+        <v>0.215</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
         <v>63</v>
-      </c>
-      <c r="H19" t="s">
-        <v>64</v>
       </c>
       <c r="I19" t="s">
         <v>64</v>
       </c>
-      <c r="J19"/>
-      <c r="K19"/>
-      <c r="L19"/>
+      <c r="J19" t="n">
+        <v>47234.417</v>
+      </c>
+      <c r="K19" t="s">
+        <v>65</v>
+      </c>
+      <c r="L19" t="s">
+        <v>40</v>
+      </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B20" t="n">
-        <v>0.208</v>
+        <v>0.012</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.215</v>
+        <v>0.194</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>8.95</v>
+        <v>6.846</v>
       </c>
       <c r="K20" t="s">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -1759,204 +1783,198 @@
         <v>67</v>
       </c>
       <c r="B21" t="n">
-        <v>0.031</v>
+        <v>0.192</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188</v>
+        <v>0.192</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>318</v>
       </c>
       <c r="G21" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="I21" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="K21" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" t="s">
-        <v>22</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
       <c r="M21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.17</v>
+        <v>0.173</v>
       </c>
       <c r="E22" t="n">
-        <v>0.883</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="H22" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="n">
+        <v>14.384</v>
+      </c>
+      <c r="K22" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" t="s">
         <v>71</v>
       </c>
-      <c r="J22" t="n">
-        <v>3657.77</v>
-      </c>
-      <c r="K22" t="s">
-        <v>72</v>
-      </c>
-      <c r="L22" t="s">
-        <v>73</v>
-      </c>
       <c r="M22" t="n">
-        <v>0.066</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B23" t="n">
-        <v>0.008</v>
+        <v>0.006</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.161</v>
+        <v>0.169</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>114</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="H23" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="I23" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>705.184</v>
+        <v>12.202</v>
       </c>
       <c r="K23" t="s">
-        <v>78</v>
+        <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="M23" t="n">
-        <v>0.384</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B24" t="n">
-        <v>0.014</v>
+        <v>0.002</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.158</v>
+        <v>0.167</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>18</v>
+        <v>123</v>
       </c>
       <c r="G24" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="J24" t="n">
-        <v>11.334</v>
+        <v>464.047</v>
       </c>
       <c r="K24" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="L24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F25" t="n">
+        <v>89</v>
+      </c>
+      <c r="G25" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" t="s">
+        <v>81</v>
+      </c>
+      <c r="I25" t="s">
         <v>82</v>
       </c>
-      <c r="B25" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.157</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18</v>
-      </c>
-      <c r="G25" t="s">
-        <v>26</v>
-      </c>
-      <c r="H25" t="s">
-        <v>30</v>
-      </c>
-      <c r="I25" t="s">
-        <v>30</v>
-      </c>
       <c r="J25" t="n">
-        <v>17.456</v>
+        <v>3591.497</v>
       </c>
       <c r="K25" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="26">
@@ -1964,22 +1982,22 @@
         <v>84</v>
       </c>
       <c r="B26" t="n">
-        <v>0.138</v>
+        <v>0.015</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.155</v>
+        <v>0.159</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
         <v>30</v>
@@ -1988,36 +2006,36 @@
         <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>5.993</v>
+        <v>14.979</v>
       </c>
       <c r="K26" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="M26" t="n">
-        <v>0.057</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B27" t="n">
-        <v>0.014</v>
+        <v>0.003</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.154</v>
+        <v>0.153</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
@@ -2029,136 +2047,136 @@
         <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>12.046</v>
+        <v>17.166</v>
       </c>
       <c r="K27" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="L27" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="M27" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B28" t="n">
-        <v>0.002</v>
+        <v>0.135</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.154</v>
+        <v>0.148</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
       <c r="J28" t="n">
-        <v>471.55</v>
+        <v>6.043</v>
       </c>
       <c r="K28" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="L28" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>120</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+      <c r="H29" t="s">
         <v>90</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.151</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>16</v>
-      </c>
-      <c r="G29" t="s">
-        <v>26</v>
-      </c>
-      <c r="H29" t="s">
-        <v>30</v>
-      </c>
       <c r="I29" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="J29" t="n">
-        <v>23.842</v>
+        <v>722.927</v>
       </c>
       <c r="K29" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="L29" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.137</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.144</v>
+        <v>0.137</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="J30" t="n">
-        <v>462.459</v>
+        <v>2.19</v>
       </c>
       <c r="K30" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>73</v>
+        <v>27</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -2169,19 +2187,19 @@
         <v>95</v>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.142</v>
+        <v>0.133</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G31" t="s">
         <v>14</v>
@@ -2190,16 +2208,16 @@
         <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="J31" t="n">
-        <v>477.186</v>
+        <v>475.646</v>
       </c>
       <c r="K31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L31" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2207,40 +2225,40 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>123</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>99</v>
+      </c>
+      <c r="I32" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" t="n">
+        <v>472.31</v>
+      </c>
+      <c r="K32" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
-      </c>
-      <c r="H32" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.176</v>
-      </c>
-      <c r="K32" t="s">
-        <v>26</v>
-      </c>
       <c r="L32" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2248,16 +2266,16 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B33" t="n">
-        <v>0.013</v>
+        <v>0.015</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.13</v>
+        <v>0.124</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2275,171 +2293,171 @@
         <v>26</v>
       </c>
       <c r="J33" t="n">
-        <v>2.163</v>
+        <v>2.098</v>
       </c>
       <c r="K33" t="s">
         <v>26</v>
       </c>
       <c r="L33" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M33" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B34" t="n">
-        <v>0.125</v>
+        <v>0.035</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.125</v>
+        <v>0.117</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="G34" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="H34" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>64</v>
-      </c>
-      <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34"/>
+        <v>20</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.269</v>
+      </c>
+      <c r="K34" t="s">
+        <v>20</v>
+      </c>
+      <c r="L34" t="s">
+        <v>50</v>
+      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B35" t="n">
-        <v>0.011</v>
+        <v>0.116</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.111</v>
+        <v>0.116</v>
       </c>
       <c r="E35" t="n">
-        <v>0.237</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>113</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="I35" t="s">
-        <v>21</v>
-      </c>
-      <c r="J35" t="n">
-        <v>7.777</v>
-      </c>
-      <c r="K35" t="s">
-        <v>21</v>
-      </c>
-      <c r="L35" t="s">
-        <v>31</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
       <c r="M35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B36" t="n">
-        <v>0.109</v>
+        <v>0.003</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.109</v>
+        <v>0.112</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I36" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J36" t="n">
-        <v>2.125</v>
+        <v>14.297</v>
       </c>
       <c r="K36" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="L36" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B37" t="n">
-        <v>0.025</v>
+        <v>0.106</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.104</v>
+        <v>0.106</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J37" t="n">
-        <v>1.337</v>
+        <v>2.13</v>
       </c>
       <c r="K37" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L37" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -2447,16 +2465,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B38" t="n">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.103</v>
+        <v>0.102</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -2471,80 +2489,80 @@
         <v>20</v>
       </c>
       <c r="I38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J38" t="n">
-        <v>3.357</v>
+        <v>2.444</v>
       </c>
       <c r="K38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B39" t="n">
-        <v>0.039</v>
+        <v>0.012</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1</v>
+        <v>0.097</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I39" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J39" t="n">
-        <v>3.263</v>
+        <v>7.837</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L39" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M39" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B40" t="n">
-        <v>0.042</v>
+        <v>0.019</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.098</v>
+        <v>0.097</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
@@ -2553,33 +2571,33 @@
         <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J40" t="n">
-        <v>1.939</v>
+        <v>3.249</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L40" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M40" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B41" t="n">
-        <v>0.015</v>
+        <v>0.028</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.096</v>
+        <v>0.092</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -2597,13 +2615,13 @@
         <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>1.327</v>
+        <v>1.225</v>
       </c>
       <c r="K41" t="s">
         <v>20</v>
       </c>
       <c r="L41" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -2611,16 +2629,16 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.093</v>
+        <v>0.092</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -2638,30 +2656,30 @@
         <v>20</v>
       </c>
       <c r="J42" t="n">
-        <v>2.461</v>
+        <v>2.411</v>
       </c>
       <c r="K42" t="s">
         <v>26</v>
       </c>
       <c r="L42" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M42" t="n">
-        <v>0.237</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B43" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.092</v>
+        <v>0.087</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -2679,13 +2697,13 @@
         <v>26</v>
       </c>
       <c r="J43" t="n">
-        <v>3.08</v>
+        <v>2.926</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
       </c>
       <c r="L43" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2693,57 +2711,57 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B44" t="n">
-        <v>0.008</v>
+        <v>0.038</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08</v>
+        <v>0.082</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
       </c>
       <c r="H44" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J44" t="n">
-        <v>2.179</v>
+        <v>1.92</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L44" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="M44" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.079</v>
+        <v>0.08</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -2755,30 +2773,30 @@
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J45" t="n">
-        <v>2.426</v>
+        <v>3.876</v>
       </c>
       <c r="K45" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M45" t="n">
-        <v>0.326</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B46" t="n">
-        <v>0.006</v>
+        <v>0.035</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -2790,48 +2808,48 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J46" t="n">
-        <v>2.197</v>
+        <v>3.265</v>
       </c>
       <c r="K46" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M46" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B47" t="n">
-        <v>0.074</v>
+        <v>0.009</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.074</v>
+        <v>0.075</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -2843,30 +2861,30 @@
         <v>26</v>
       </c>
       <c r="J47" t="n">
-        <v>1.871</v>
+        <v>2.126</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M47" t="n">
-        <v>0.057</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B48" t="n">
-        <v>0.073</v>
+        <v>0.072</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.073</v>
+        <v>0.072</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2878,13 +2896,13 @@
         <v>20</v>
       </c>
       <c r="H48" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I48" t="s">
         <v>26</v>
       </c>
       <c r="J48" t="n">
-        <v>1.664</v>
+        <v>1.896</v>
       </c>
       <c r="K48" t="s">
         <v>26</v>
@@ -2893,21 +2911,21 @@
         <v>26</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B49" t="n">
-        <v>0.062</v>
+        <v>0.056</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.072</v>
+        <v>0.07</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2922,10 +2940,10 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J49" t="n">
-        <v>2.212</v>
+        <v>2.243</v>
       </c>
       <c r="K49" t="s">
         <v>27</v>
@@ -2934,100 +2952,100 @@
         <v>30</v>
       </c>
       <c r="M49" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B50" t="n">
-        <v>0.021</v>
+        <v>0.009</v>
       </c>
       <c r="C50" t="n">
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.071</v>
+        <v>0.069</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J50" t="n">
-        <v>1.306</v>
+        <v>2.143</v>
       </c>
       <c r="K50" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B51" t="n">
-        <v>0.049</v>
+        <v>0.01</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.067</v>
+        <v>0.066</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
       </c>
       <c r="H51" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I51" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>3.827</v>
+        <v>1.664</v>
       </c>
       <c r="K51" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M51" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B52" t="n">
-        <v>0.065</v>
+        <v>0.024</v>
       </c>
       <c r="C52" t="n">
-        <v>0.292</v>
+        <v>0</v>
       </c>
       <c r="D52" t="n">
         <v>0.065</v>
@@ -3036,42 +3054,42 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J52" t="n">
-        <v>1.931</v>
+        <v>1.208</v>
       </c>
       <c r="K52" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L52" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M52" t="n">
-        <v>0.034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B53" t="n">
-        <v>0.001</v>
+        <v>0.004</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.059</v>
+        <v>0.063</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
@@ -3089,13 +3107,13 @@
         <v>20</v>
       </c>
       <c r="J53" t="n">
-        <v>1.797</v>
+        <v>1.742</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3103,22 +3121,22 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B54" t="n">
-        <v>0.023</v>
+        <v>0.022</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.058</v>
+        <v>0.063</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
@@ -3130,36 +3148,36 @@
         <v>26</v>
       </c>
       <c r="J54" t="n">
-        <v>1.927</v>
+        <v>1.628</v>
       </c>
       <c r="K54" t="s">
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M54" t="n">
-        <v>0.023</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B55" t="n">
-        <v>0.006</v>
+        <v>0.059</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.056</v>
+        <v>0.059</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3171,71 +3189,71 @@
         <v>26</v>
       </c>
       <c r="J55" t="n">
-        <v>1.885</v>
+        <v>1.673</v>
       </c>
       <c r="K55" t="s">
         <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M55" t="n">
-        <v>0.481</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B56" t="n">
-        <v>0.007</v>
+        <v>0.017</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.055</v>
+        <v>0.058</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F56" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="I56" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
       <c r="J56" t="n">
-        <v>1.982</v>
+        <v>55.528</v>
       </c>
       <c r="K56" t="s">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="L56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M56" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B57" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.054</v>
+        <v>0.051</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3253,71 +3271,71 @@
         <v>20</v>
       </c>
       <c r="J57" t="n">
-        <v>1.726</v>
+        <v>1.752</v>
       </c>
       <c r="K57" t="s">
         <v>26</v>
       </c>
       <c r="L57" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M57" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="B58" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.053</v>
+        <v>0.049</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J58" t="n">
-        <v>7.735</v>
+        <v>1.7</v>
       </c>
       <c r="K58" t="s">
-        <v>66</v>
+        <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="B59" t="n">
-        <v>0.008</v>
+        <v>0.011</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.051</v>
+        <v>0.047</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3329,30 +3347,30 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I59" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J59" t="n">
-        <v>1.824</v>
+        <v>1.931</v>
       </c>
       <c r="K59" t="s">
         <v>26</v>
       </c>
       <c r="L59" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M59" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B60" t="n">
-        <v>0.002</v>
+        <v>0.01</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
@@ -3364,77 +3382,77 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="J60" t="n">
-        <v>153.847</v>
+        <v>1.921</v>
       </c>
       <c r="K60" t="s">
-        <v>127</v>
+        <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>83</v>
+        <v>50</v>
       </c>
       <c r="M60" t="n">
-        <v>0.415</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B61" t="n">
-        <v>0.019</v>
+        <v>0.046</v>
       </c>
       <c r="C61" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D61" t="n">
-        <v>0.044</v>
+        <v>0.046</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J61" t="n">
-        <v>1.435</v>
+        <v>1.924</v>
       </c>
       <c r="K61" t="s">
         <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
@@ -3443,92 +3461,92 @@
         <v>0.044</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="J62" t="n">
-        <v>2.102</v>
+        <v>140.848</v>
       </c>
       <c r="K62" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="M62" t="n">
-        <v>0.023</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B63" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J63" t="n">
-        <v>2.263</v>
+        <v>1.35</v>
       </c>
       <c r="K63" t="s">
         <v>26</v>
       </c>
       <c r="L63" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M63" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B64" t="n">
-        <v>0.028</v>
+        <v>0.013</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.042</v>
+        <v>0.043</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -3537,33 +3555,33 @@
         <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J64" t="n">
-        <v>1.759</v>
+        <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M64" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B65" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.041</v>
+        <v>0.042</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3575,19 +3593,19 @@
         <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I65" t="s">
         <v>26</v>
       </c>
       <c r="J65" t="n">
-        <v>1.955</v>
+        <v>1.687</v>
       </c>
       <c r="K65" t="s">
         <v>26</v>
       </c>
       <c r="L65" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M65" t="n">
         <v>0</v>
@@ -3595,16 +3613,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B66" t="n">
-        <v>0.038</v>
+        <v>0.005</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.041</v>
+        <v>0.04</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3616,36 +3634,36 @@
         <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I66" t="s">
         <v>26</v>
       </c>
       <c r="J66" t="n">
-        <v>1.953</v>
+        <v>2.211</v>
       </c>
       <c r="K66" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M66" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B67" t="n">
-        <v>0.005</v>
+        <v>0.026</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
@@ -3657,60 +3675,60 @@
         <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J67" t="n">
-        <v>2.188</v>
+        <v>1.757</v>
       </c>
       <c r="K67" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M67" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B68" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.038</v>
+        <v>0.036</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G68" t="s">
         <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="I68" t="s">
-        <v>137</v>
+        <v>20</v>
       </c>
       <c r="J68" t="n">
-        <v>57.151</v>
+        <v>1.499</v>
       </c>
       <c r="K68" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M68" t="n">
         <v>0</v>
@@ -3718,40 +3736,40 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B69" t="n">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="I69" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J69" t="n">
-        <v>1.473</v>
+        <v>7.735</v>
       </c>
       <c r="K69" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="L69" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="M69" t="n">
         <v>0</v>
@@ -3759,22 +3777,22 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B70" t="n">
-        <v>0.023</v>
+        <v>0.029</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.037</v>
+        <v>0.035</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -3783,27 +3801,27 @@
         <v>20</v>
       </c>
       <c r="I70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>2.554</v>
+        <v>1.947</v>
       </c>
       <c r="K70" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L70" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M70" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B71" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
@@ -3815,83 +3833,83 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
       </c>
       <c r="H71" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I71" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J71" t="n">
-        <v>1.771</v>
+        <v>7.369</v>
       </c>
       <c r="K71" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L71" t="s">
-        <v>31</v>
+        <v>146</v>
       </c>
       <c r="M71" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B72" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.032</v>
+        <v>0.03</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G72" t="s">
         <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I72" t="s">
         <v>26</v>
       </c>
       <c r="J72" t="n">
-        <v>1.792</v>
+        <v>2.336</v>
       </c>
       <c r="K72" t="s">
         <v>26</v>
       </c>
       <c r="L72" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B73" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.032</v>
+        <v>0.029</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
@@ -3903,42 +3921,42 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J73" t="n">
-        <v>1.53</v>
+        <v>2.144</v>
       </c>
       <c r="K73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L73" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M73" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B74" t="n">
-        <v>0.003</v>
+        <v>0.027</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -3950,77 +3968,77 @@
         <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>1.532</v>
+        <v>1.332</v>
       </c>
       <c r="K74" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M74" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B75" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.03</v>
+        <v>0.027</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
       </c>
       <c r="H75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>7.415</v>
+        <v>1.597</v>
       </c>
       <c r="K75" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B76" t="n">
-        <v>0</v>
+        <v>0.006</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.029</v>
+        <v>0.026</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G76" t="s">
         <v>20</v>
@@ -4032,71 +4050,71 @@
         <v>26</v>
       </c>
       <c r="J76" t="n">
-        <v>2.462</v>
+        <v>2.052</v>
       </c>
       <c r="K76" t="s">
         <v>26</v>
       </c>
       <c r="L76" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M76" t="n">
-        <v>0.326</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="B77" t="n">
-        <v>0.022</v>
+        <v>0.007</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.029</v>
+        <v>0.025</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="G77" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H77" t="s">
         <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J77" t="n">
-        <v>1.874</v>
+        <v>1.488</v>
       </c>
       <c r="K77" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s">
-        <v>21</v>
+        <v>113</v>
       </c>
       <c r="M77" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B78" t="n">
-        <v>0.026</v>
+        <v>0.023</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.028</v>
+        <v>0.025</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
@@ -4114,7 +4132,7 @@
         <v>20</v>
       </c>
       <c r="J78" t="n">
-        <v>1.761</v>
+        <v>1.824</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
@@ -4123,27 +4141,27 @@
         <v>15</v>
       </c>
       <c r="M78" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B79" t="n">
-        <v>0.027</v>
+        <v>0.004</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.027</v>
+        <v>0.024</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -4155,36 +4173,36 @@
         <v>20</v>
       </c>
       <c r="J79" t="n">
-        <v>1.317</v>
+        <v>1.452</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L79" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M79" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B80" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.026</v>
+        <v>0.024</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G80" t="s">
         <v>20</v>
@@ -4196,39 +4214,39 @@
         <v>20</v>
       </c>
       <c r="J80" t="n">
-        <v>1.686</v>
+        <v>1.447</v>
       </c>
       <c r="K80" t="s">
         <v>20</v>
       </c>
       <c r="L80" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M80" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B81" t="n">
-        <v>0.013</v>
+        <v>0.002</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G81" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
         <v>26</v>
@@ -4237,103 +4255,103 @@
         <v>28</v>
       </c>
       <c r="J81" t="n">
-        <v>4.526</v>
+        <v>4.51</v>
       </c>
       <c r="K81" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="L81" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="M81" t="n">
-        <v>0.384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B82" t="n">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.025</v>
+        <v>0.022</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J82" t="n">
-        <v>1.726</v>
+        <v>4.538</v>
       </c>
       <c r="K82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M82" t="n">
-        <v>0.023</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002</v>
+        <v>0.018</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.023</v>
+        <v>0.021</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
         <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I83" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>4.596</v>
+        <v>1.816</v>
       </c>
       <c r="K83" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B84" t="n">
         <v>0.003</v>
@@ -4342,7 +4360,7 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.02</v>
+        <v>0.021</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4360,24 +4378,24 @@
         <v>26</v>
       </c>
       <c r="J84" t="n">
-        <v>1.92</v>
+        <v>2.248</v>
       </c>
       <c r="K84" t="s">
         <v>26</v>
       </c>
       <c r="L84" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B85" t="n">
-        <v>0.015</v>
+        <v>0.003</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
@@ -4389,36 +4407,36 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G85" t="s">
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J85" t="n">
-        <v>2.152</v>
+        <v>4.636</v>
       </c>
       <c r="K85" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="L85" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M85" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -4430,156 +4448,156 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
       </c>
       <c r="H86" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J86" t="n">
-        <v>2.308</v>
+        <v>2.621</v>
       </c>
       <c r="K86" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L86" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M86" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="B87" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J87" t="n">
-        <v>2.007</v>
+        <v>4.66</v>
       </c>
       <c r="K87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M87" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B88" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.017</v>
+        <v>0.019</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I88" t="s">
+        <v>20</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.004</v>
+      </c>
+      <c r="K88" t="s">
         <v>28</v>
       </c>
-      <c r="J88" t="n">
-        <v>3.711</v>
-      </c>
-      <c r="K88" t="s">
-        <v>15</v>
-      </c>
       <c r="L88" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M88" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B89" t="n">
-        <v>0.004</v>
+        <v>0.006</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.015</v>
+        <v>0.019</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G89" t="s">
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J89" t="n">
-        <v>4.425</v>
+        <v>1.686</v>
       </c>
       <c r="K89" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L89" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B90" t="n">
         <v>0.005</v>
@@ -4588,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4603,24 +4621,24 @@
         <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J90" t="n">
-        <v>1.298</v>
+        <v>1.956</v>
       </c>
       <c r="K90" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B91" t="n">
         <v>0.002</v>
@@ -4629,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
@@ -4641,45 +4659,45 @@
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I91" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J91" t="n">
-        <v>1.538</v>
+        <v>2.25</v>
       </c>
       <c r="K91" t="s">
         <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H92" t="s">
         <v>26</v>
@@ -4688,13 +4706,13 @@
         <v>28</v>
       </c>
       <c r="J92" t="n">
-        <v>4.687</v>
+        <v>4.425</v>
       </c>
       <c r="K92" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4702,51 +4720,51 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G93" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I93" t="s">
         <v>28</v>
       </c>
       <c r="J93" t="n">
-        <v>4.531</v>
+        <v>3.704</v>
       </c>
       <c r="K93" t="s">
+        <v>15</v>
+      </c>
+      <c r="L93" t="s">
         <v>24</v>
       </c>
-      <c r="L93" t="s">
-        <v>22</v>
-      </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
@@ -4758,48 +4776,48 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
       </c>
       <c r="H94" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J94" t="n">
-        <v>2.312</v>
+        <v>1.204</v>
       </c>
       <c r="K94" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L94" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M94" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="B95" t="n">
-        <v>0.007</v>
+        <v>0.012</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.014</v>
+        <v>0.012</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -4808,16 +4826,16 @@
         <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J95" t="n">
-        <v>1.433</v>
+        <v>1.51</v>
       </c>
       <c r="K95" t="s">
         <v>26</v>
       </c>
       <c r="L95" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -4825,40 +4843,40 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B96" t="n">
-        <v>0.013</v>
+        <v>0.003</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.013</v>
+        <v>0.011</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
         <v>26</v>
       </c>
       <c r="J96" t="n">
-        <v>1.507</v>
+        <v>1.906</v>
       </c>
       <c r="K96" t="s">
         <v>26</v>
       </c>
       <c r="L96" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4866,16 +4884,16 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="B97" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.012</v>
+        <v>0.011</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4893,7 +4911,7 @@
         <v>26</v>
       </c>
       <c r="J97" t="n">
-        <v>2.514</v>
+        <v>2.464</v>
       </c>
       <c r="K97" t="s">
         <v>27</v>
@@ -4902,15 +4920,15 @@
         <v>21</v>
       </c>
       <c r="M97" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B98" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
@@ -4922,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
@@ -4931,27 +4949,27 @@
         <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J98" t="n">
-        <v>1.269</v>
+        <v>1.99</v>
       </c>
       <c r="K98" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L98" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B99" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
@@ -4972,24 +4990,24 @@
         <v>20</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J99" t="n">
-        <v>2.048</v>
+        <v>1.68</v>
       </c>
       <c r="K99" t="s">
         <v>26</v>
       </c>
       <c r="L99" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M99" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B100" t="n">
         <v>0.001</v>
@@ -4998,7 +5016,7 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.009</v>
+        <v>0.008</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
@@ -5016,30 +5034,30 @@
         <v>26</v>
       </c>
       <c r="J100" t="n">
-        <v>2.312</v>
+        <v>2.254</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M100" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="B101" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
@@ -5057,7 +5075,7 @@
         <v>20</v>
       </c>
       <c r="J101" t="n">
-        <v>1.737</v>
+        <v>1.724</v>
       </c>
       <c r="K101" t="s">
         <v>26</v>
@@ -5071,16 +5089,16 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B102" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.008</v>
+        <v>0.007</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
@@ -5092,60 +5110,60 @@
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I102" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J102" t="n">
-        <v>1.75</v>
+        <v>1.974</v>
       </c>
       <c r="K102" t="s">
         <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M102" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B103" t="n">
-        <v>0.002</v>
+        <v>0.007</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I103" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J103" t="n">
-        <v>1.985</v>
+        <v>1.047</v>
       </c>
       <c r="K103" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L103" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -5153,48 +5171,48 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B104" t="n">
-        <v>0</v>
+        <v>0.007</v>
       </c>
       <c r="C104" t="n">
         <v>0</v>
       </c>
       <c r="D104" t="n">
-        <v>0.005</v>
+        <v>0.007</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I104" t="s">
         <v>26</v>
       </c>
       <c r="J104" t="n">
-        <v>1.648</v>
+        <v>1.909</v>
       </c>
       <c r="K104" t="s">
         <v>26</v>
       </c>
       <c r="L104" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="B105" t="n">
         <v>0.003</v>
@@ -5203,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="D105" t="n">
-        <v>0.005</v>
+        <v>0.006</v>
       </c>
       <c r="E105" t="n">
         <v>0</v>
@@ -5218,16 +5236,16 @@
         <v>20</v>
       </c>
       <c r="I105" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J105" t="n">
-        <v>1.409</v>
+        <v>1.634</v>
       </c>
       <c r="K105" t="s">
         <v>26</v>
       </c>
       <c r="L105" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M105" t="n">
         <v>0</v>
@@ -5235,10 +5253,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B106" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -5250,7 +5268,7 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G106" t="s">
         <v>20</v>
@@ -5259,16 +5277,16 @@
         <v>20</v>
       </c>
       <c r="I106" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J106" t="n">
-        <v>1.132</v>
+        <v>1.749</v>
       </c>
       <c r="K106" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L106" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M106" t="n">
         <v>0</v>
@@ -5276,63 +5294,63 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C107" t="n">
         <v>0</v>
       </c>
       <c r="D107" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G107" t="s">
         <v>20</v>
       </c>
       <c r="H107" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I107" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J107" t="n">
-        <v>2.285</v>
+        <v>1.399</v>
       </c>
       <c r="K107" t="s">
         <v>26</v>
       </c>
       <c r="L107" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M107" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B108" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="C108" t="n">
         <v>0</v>
       </c>
       <c r="D108" t="n">
-        <v>0.004</v>
+        <v>0.005</v>
       </c>
       <c r="E108" t="n">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G108" t="s">
         <v>20</v>
@@ -5344,21 +5362,21 @@
         <v>26</v>
       </c>
       <c r="J108" t="n">
-        <v>1.912</v>
+        <v>1.888</v>
       </c>
       <c r="K108" t="s">
         <v>26</v>
       </c>
       <c r="L108" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M108" t="n">
-        <v>0.023</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -5367,7 +5385,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E109" t="n">
         <v>0</v>
@@ -5385,13 +5403,13 @@
         <v>20</v>
       </c>
       <c r="J109" t="n">
-        <v>1.074</v>
+        <v>1.021</v>
       </c>
       <c r="K109" t="s">
         <v>20</v>
       </c>
       <c r="L109" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M109" t="n">
         <v>0</v>
@@ -5399,16 +5417,16 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
         <v>0.002</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.003</v>
       </c>
       <c r="E110" t="n">
         <v>0</v>
@@ -5423,16 +5441,16 @@
         <v>20</v>
       </c>
       <c r="I110" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J110" t="n">
-        <v>1.769</v>
+        <v>1.393</v>
       </c>
       <c r="K110" t="s">
         <v>26</v>
       </c>
       <c r="L110" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M110" t="n">
         <v>0</v>
@@ -5440,7 +5458,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B111" t="n">
         <v>0.001</v>
@@ -5449,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="E111" t="n">
         <v>0</v>
@@ -5467,30 +5485,30 @@
         <v>26</v>
       </c>
       <c r="J111" t="n">
-        <v>2.098</v>
+        <v>2.228</v>
       </c>
       <c r="K111" t="s">
         <v>26</v>
       </c>
       <c r="L111" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M111" t="n">
-        <v>0.375</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B112" t="n">
+        <v>0</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
         <v>0.001</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.002</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
@@ -5508,13 +5526,13 @@
         <v>20</v>
       </c>
       <c r="J112" t="n">
-        <v>1.059</v>
+        <v>1.012</v>
       </c>
       <c r="K112" t="s">
         <v>20</v>
       </c>
       <c r="L112" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M112" t="n">
         <v>0</v>
@@ -5522,22 +5540,22 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B113" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C113" t="n">
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G113" t="s">
         <v>20</v>
@@ -5549,30 +5567,30 @@
         <v>20</v>
       </c>
       <c r="J113" t="n">
-        <v>1.33</v>
+        <v>1.255</v>
       </c>
       <c r="K113" t="s">
         <v>20</v>
       </c>
       <c r="L113" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M113" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
         <v>0.001</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.002</v>
       </c>
       <c r="E114" t="n">
         <v>0</v>
@@ -5590,21 +5608,21 @@
         <v>20</v>
       </c>
       <c r="J114" t="n">
-        <v>1.846</v>
+        <v>1.709</v>
       </c>
       <c r="K114" t="s">
         <v>20</v>
       </c>
       <c r="L114" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M114" t="n">
-        <v>0.013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B115" t="n">
         <v>0.001</v>
@@ -5613,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E115" t="n">
         <v>0</v>
@@ -5631,7 +5649,7 @@
         <v>20</v>
       </c>
       <c r="J115" t="n">
-        <v>1.027</v>
+        <v>1.024</v>
       </c>
       <c r="K115" t="s">
         <v>20</v>
@@ -5640,53 +5658,53 @@
         <v>27</v>
       </c>
       <c r="M115" t="n">
-        <v>0.224</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B116" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C116" t="n">
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="E116" t="n">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G116" t="s">
         <v>20</v>
       </c>
       <c r="H116" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I116" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J116" t="n">
-        <v>2.323</v>
+        <v>1.247</v>
       </c>
       <c r="K116" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L116" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M116" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B117" t="n">
         <v>0.001</v>
@@ -5701,36 +5719,36 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G117" t="s">
         <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I117" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J117" t="n">
-        <v>1.168</v>
+        <v>2.256</v>
       </c>
       <c r="K117" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L117" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M117" t="n">
-        <v>0.035</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B118" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -5742,42 +5760,42 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G118" t="s">
         <v>20</v>
       </c>
       <c r="H118" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I118" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J118" t="n">
-        <v>1.043</v>
+        <v>1.899</v>
       </c>
       <c r="K118" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L118" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M118" t="n">
-        <v>0.315</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B119" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C119" t="n">
         <v>0</v>
       </c>
       <c r="D119" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
@@ -5795,30 +5813,30 @@
         <v>20</v>
       </c>
       <c r="J119" t="n">
-        <v>1.294</v>
+        <v>1.169</v>
       </c>
       <c r="K119" t="s">
         <v>20</v>
       </c>
       <c r="L119" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="M119" t="n">
-        <v>0.013</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B120" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
       </c>
       <c r="D120" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E120" t="n">
         <v>0</v>
@@ -5836,87 +5854,95 @@
         <v>20</v>
       </c>
       <c r="J120" t="n">
-        <v>1.221</v>
+        <v>1.219</v>
       </c>
       <c r="K120" t="s">
         <v>20</v>
       </c>
       <c r="L120" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M120" t="n">
-        <v>0.023</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B121" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C121" t="n">
         <v>0</v>
       </c>
       <c r="D121" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G121" t="s">
         <v>20</v>
       </c>
       <c r="H121" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I121" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J121" t="n">
-        <v>1.899</v>
+        <v>1.042</v>
       </c>
       <c r="K121" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M121" t="n">
-        <v>0.023</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>192</v>
-      </c>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122"/>
+        <v>197</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>0</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
       <c r="F122" t="n">
-        <v>2252</v>
+        <v>2</v>
       </c>
       <c r="G122" t="s">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>194</v>
+        <v>20</v>
       </c>
       <c r="I122" t="s">
-        <v>195</v>
+        <v>20</v>
       </c>
       <c r="J122" t="n">
-        <v>2893603.358</v>
+        <v>1.209</v>
       </c>
       <c r="K122" t="s">
-        <v>196</v>
+        <v>20</v>
       </c>
       <c r="L122" t="s">
-        <v>197</v>
+        <v>50</v>
       </c>
       <c r="M122" t="n">
         <v>0</v>
@@ -5931,28 +5957,61 @@
       <c r="D123"/>
       <c r="E123"/>
       <c r="F123" t="n">
+        <v>2253</v>
+      </c>
+      <c r="G123" t="s">
+        <v>199</v>
+      </c>
+      <c r="H123" t="s">
+        <v>200</v>
+      </c>
+      <c r="I123" t="s">
+        <v>201</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2866595.22</v>
+      </c>
+      <c r="K123" t="s">
+        <v>202</v>
+      </c>
+      <c r="L123" t="s">
+        <v>203</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>204</v>
+      </c>
+      <c r="B124"/>
+      <c r="C124"/>
+      <c r="D124"/>
+      <c r="E124"/>
+      <c r="F124" t="n">
         <v>1</v>
       </c>
-      <c r="G123" t="s">
-        <v>20</v>
-      </c>
-      <c r="H123" t="s">
-        <v>20</v>
-      </c>
-      <c r="I123" t="s">
-        <v>20</v>
-      </c>
-      <c r="J123" t="n">
+      <c r="G124" t="s">
+        <v>20</v>
+      </c>
+      <c r="H124" t="s">
+        <v>20</v>
+      </c>
+      <c r="I124" t="s">
+        <v>20</v>
+      </c>
+      <c r="J124" t="n">
         <v>1</v>
       </c>
-      <c r="K123" t="s">
-        <v>20</v>
-      </c>
-      <c r="L123" t="s">
-        <v>20</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0.023</v>
+      <c r="K124" t="s">
+        <v>20</v>
+      </c>
+      <c r="L124" t="s">
+        <v>20</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0.024</v>
       </c>
     </row>
   </sheetData>

--- a/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
+++ b/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -110,18 +110,12 @@
     <t xml:space="preserve">p41b_curso</t>
   </si>
   <si>
-    <t xml:space="preserve">p49_ocu_1d</t>
+    <t xml:space="preserve">ocu_1d_13</t>
   </si>
   <si>
     <t xml:space="preserve">99</t>
   </si>
   <si>
-    <t xml:space="preserve">ocu_1d_19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ocu_1d_13</t>
-  </si>
-  <si>
     <t xml:space="preserve">mun_nac_cod</t>
   </si>
   <si>
@@ -137,72 +131,57 @@
     <t xml:space="preserve">999999</t>
   </si>
   <si>
-    <t xml:space="preserve">act_eco_2d_19</t>
-  </si>
-  <si>
     <t xml:space="preserve">act_eco_2d_13</t>
   </si>
   <si>
-    <t xml:space="preserve">mun_lab_cod</t>
+    <t xml:space="preserve">p40_lee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p26_edad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_res5_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edad_qui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mun_res_cod</t>
   </si>
   <si>
     <t xml:space="preserve">10101</t>
   </si>
   <si>
-    <t xml:space="preserve">21951.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40902</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">999995</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p40_lee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p26_edad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_res5_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21801</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">edad_qui</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mun_res_cod</t>
-  </si>
-  <si>
     <t xml:space="preserve">21901.75</t>
   </si>
   <si>
@@ -215,15 +194,6 @@
     <t xml:space="preserve">p51_actec_2d</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_mun</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2260</t>
-  </si>
-  <si>
-    <t xml:space="preserve">character</t>
-  </si>
-  <si>
     <t xml:space="preserve">idioma_mayor_uso</t>
   </si>
   <si>
@@ -278,39 +248,27 @@
     <t xml:space="preserve">gedadedu</t>
   </si>
   <si>
-    <t xml:space="preserve">prov_lab_cod</t>
+    <t xml:space="preserve">g_edad_bol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_res5_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">701</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prov_res_cod</t>
   </si>
   <si>
     <t xml:space="preserve">101</t>
   </si>
   <si>
-    <t xml:space="preserve">219.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">702</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9997</t>
-  </si>
-  <si>
-    <t xml:space="preserve">g_edad_bol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_res5_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">701</t>
-  </si>
-  <si>
-    <t xml:space="preserve">prov_res_cod</t>
-  </si>
-  <si>
     <t xml:space="preserve">219</t>
   </si>
   <si>
@@ -323,15 +281,6 @@
     <t xml:space="preserve">p42c_camina</t>
   </si>
   <si>
-    <t xml:space="preserve">ID_prov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p332_idiohab2_cod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">994</t>
-  </si>
-  <si>
     <t xml:space="preserve">g_edad</t>
   </si>
   <si>
@@ -347,9 +296,6 @@
     <t xml:space="preserve">p42d_comuni</t>
   </si>
   <si>
-    <t xml:space="preserve">p50_semp</t>
-  </si>
-  <si>
     <t xml:space="preserve">p24_parentes</t>
   </si>
   <si>
@@ -371,9 +317,6 @@
     <t xml:space="preserve">asiste</t>
   </si>
   <si>
-    <t xml:space="preserve">v16_desague</t>
-  </si>
-  <si>
     <t xml:space="preserve">v18j_lavadora</t>
   </si>
   <si>
@@ -386,9 +329,6 @@
     <t xml:space="preserve">p31_afiliado</t>
   </si>
   <si>
-    <t xml:space="preserve">p45_agro</t>
-  </si>
-  <si>
     <t xml:space="preserve">urbrur</t>
   </si>
   <si>
@@ -419,9 +359,6 @@
     <t xml:space="preserve">p42_discap</t>
   </si>
   <si>
-    <t xml:space="preserve">p32_pueblo_cod</t>
-  </si>
-  <si>
     <t xml:space="preserve">p42a_ver</t>
   </si>
   <si>
@@ -440,12 +377,6 @@
     <t xml:space="preserve">p32_pueblo_per</t>
   </si>
   <si>
-    <t xml:space="preserve">iprov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
-  </si>
-  <si>
     <t xml:space="preserve">v08_aguadist</t>
   </si>
   <si>
@@ -455,9 +386,6 @@
     <t xml:space="preserve">2227</t>
   </si>
   <si>
-    <t xml:space="preserve">p52_mov</t>
-  </si>
-  <si>
     <t xml:space="preserve">v19g_tvcable</t>
   </si>
   <si>
@@ -485,9 +413,6 @@
     <t xml:space="preserve">dep_nac_cod</t>
   </si>
   <si>
-    <t xml:space="preserve">dep_lab_cod</t>
-  </si>
-  <si>
     <t xml:space="preserve">v14_dormit</t>
   </si>
   <si>
@@ -515,9 +440,6 @@
     <t xml:space="preserve">v18h_calefon</t>
   </si>
   <si>
-    <t xml:space="preserve">idep</t>
-  </si>
-  <si>
     <t xml:space="preserve">tip_hog</t>
   </si>
   <si>
@@ -542,9 +464,6 @@
     <t xml:space="preserve">v19h_telfijo</t>
   </si>
   <si>
-    <t xml:space="preserve">imun</t>
-  </si>
-  <si>
     <t xml:space="preserve">p30d_atedom</t>
   </si>
   <si>
@@ -563,9 +482,6 @@
     <t xml:space="preserve">p35_lugnac</t>
   </si>
   <si>
-    <t xml:space="preserve">p44_nego</t>
-  </si>
-  <si>
     <t xml:space="preserve">p29_ci</t>
   </si>
   <si>
@@ -602,28 +518,7 @@
     <t xml:space="preserve">pet_19</t>
   </si>
   <si>
-    <t xml:space="preserve">ft_19</t>
-  </si>
-  <si>
     <t xml:space="preserve">pet_13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">i00</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3298</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1919988.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3271369.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3940362.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4492192</t>
   </si>
   <si>
     <t xml:space="preserve">v02_condocup</t>
@@ -1250,13 +1145,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.293</v>
+        <v>0.288</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1268,13 +1163,13 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>9.658</v>
+        <v>9.205</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -1283,7 +1178,7 @@
         <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>0.301</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="9">
@@ -1297,66 +1192,66 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.293</v>
+        <v>0.274</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>377</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="I9" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J9" t="n">
-        <v>9.658</v>
+        <v>46418.892</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M9" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B10" t="n">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.288</v>
+        <v>0.269</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I10" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>9.205</v>
+        <v>8.806</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
@@ -1370,40 +1265,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B11" t="n">
-        <v>0.002</v>
+        <v>0.104</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.274</v>
+        <v>0.239</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>377</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="I11" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="J11" t="n">
-        <v>46418.892</v>
+        <v>1.099</v>
       </c>
       <c r="K11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="L11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1411,163 +1306,163 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B12" t="n">
-        <v>0.009</v>
+        <v>0.21</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.27</v>
+        <v>0.234</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="H12" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="J12" t="n">
-        <v>9.793</v>
+        <v>42.52</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="M12" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B13" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.269</v>
+        <v>0.22</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>21</v>
+        <v>344</v>
       </c>
       <c r="G13" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="I13" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J13" t="n">
-        <v>8.806</v>
+        <v>47570.256</v>
       </c>
       <c r="K13" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="L13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="M13" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.208</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J14" t="n">
+        <v>9.104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L14" t="s">
         <v>43</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.257</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>303</v>
-      </c>
-      <c r="G14" t="s">
-        <v>44</v>
-      </c>
-      <c r="H14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" t="s">
-        <v>46</v>
-      </c>
-      <c r="J14" t="n">
-        <v>72304.121</v>
-      </c>
-      <c r="K14" t="s">
-        <v>47</v>
-      </c>
-      <c r="L14" t="s">
-        <v>48</v>
-      </c>
       <c r="M14" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B15" t="n">
-        <v>0.104</v>
+        <v>0.003</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.239</v>
+        <v>0.215</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>333</v>
       </c>
       <c r="G15" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="J15" t="n">
-        <v>1.099</v>
+        <v>47234.417</v>
       </c>
       <c r="K15" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1575,40 +1470,40 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B16" t="n">
-        <v>0.21</v>
+        <v>0.012</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.234</v>
+        <v>0.194</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>73</v>
+        <v>22</v>
       </c>
       <c r="G16" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="J16" t="n">
-        <v>42.52</v>
+        <v>6.846</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1616,122 +1511,122 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B17" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>19</v>
+      </c>
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" t="s">
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>30</v>
+      </c>
+      <c r="J17" t="n">
+        <v>14.384</v>
+      </c>
+      <c r="K17" t="s">
+        <v>30</v>
+      </c>
+      <c r="L17" t="s">
+        <v>61</v>
+      </c>
+      <c r="M17" t="n">
         <v>0.001</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>344</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>58</v>
-      </c>
-      <c r="I17" t="s">
-        <v>46</v>
-      </c>
-      <c r="J17" t="n">
-        <v>47570.256</v>
-      </c>
-      <c r="K17" t="s">
-        <v>59</v>
-      </c>
-      <c r="L17" t="s">
-        <v>40</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="n">
-        <v>0.208</v>
+        <v>0.006</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.219</v>
+        <v>0.169</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
-        <v>9.104</v>
+        <v>12.202</v>
       </c>
       <c r="K18" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="L18" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B19" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.215</v>
+        <v>0.167</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>333</v>
+        <v>123</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="I19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J19" t="n">
-        <v>47234.417</v>
+        <v>464.047</v>
       </c>
       <c r="K19" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="L19" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1739,98 +1634,104 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B20" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.194</v>
+        <v>0.161</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.463</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="J20" t="n">
-        <v>6.846</v>
+        <v>3591.497</v>
       </c>
       <c r="K20" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B21" t="n">
-        <v>0.192</v>
+        <v>0.015</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.192</v>
+        <v>0.159</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>318</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="H21" t="s">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>69</v>
-      </c>
-      <c r="J21"/>
-      <c r="K21"/>
-      <c r="L21"/>
+        <v>30</v>
+      </c>
+      <c r="J21" t="n">
+        <v>14.979</v>
+      </c>
+      <c r="K21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L21" t="s">
+        <v>61</v>
+      </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B22" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.173</v>
+        <v>0.153</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1842,39 +1743,39 @@
         <v>30</v>
       </c>
       <c r="J22" t="n">
-        <v>14.384</v>
+        <v>17.166</v>
       </c>
       <c r="K22" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="L22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006</v>
+        <v>0.135</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.169</v>
+        <v>0.148</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
         <v>30</v>
@@ -1883,54 +1784,54 @@
         <v>30</v>
       </c>
       <c r="J23" t="n">
-        <v>12.202</v>
+        <v>6.043</v>
       </c>
       <c r="K23" t="s">
         <v>30</v>
       </c>
       <c r="L23" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="M23" t="n">
-        <v>0.003</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002</v>
+        <v>0.137</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.167</v>
+        <v>0.137</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>123</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="I24" t="s">
-        <v>76</v>
+        <v>26</v>
       </c>
       <c r="J24" t="n">
-        <v>464.047</v>
+        <v>2.19</v>
       </c>
       <c r="K24" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="L24" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -1941,283 +1842,283 @@
         <v>79</v>
       </c>
       <c r="B25" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.161</v>
+        <v>0.133</v>
       </c>
       <c r="E25" t="n">
-        <v>0.463</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
         <v>80</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>81</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="n">
+        <v>475.646</v>
+      </c>
+      <c r="K25" t="s">
         <v>82</v>
       </c>
-      <c r="J25" t="n">
-        <v>3591.497</v>
-      </c>
-      <c r="K25" t="s">
-        <v>83</v>
-      </c>
       <c r="L25" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="M25" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
         <v>84</v>
       </c>
-      <c r="B26" t="n">
-        <v>0.015</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.159</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>21</v>
-      </c>
-      <c r="G26" t="s">
-        <v>26</v>
-      </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>86</v>
       </c>
       <c r="J26" t="n">
-        <v>14.979</v>
+        <v>472.31</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B27" t="n">
-        <v>0.003</v>
+        <v>0.015</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.153</v>
+        <v>0.124</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I27" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J27" t="n">
-        <v>17.166</v>
+        <v>2.098</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="L27" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M27" t="n">
-        <v>0.003</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B28" t="n">
-        <v>0.135</v>
+        <v>0.035</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.148</v>
+        <v>0.117</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G28" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="J28" t="n">
-        <v>6.043</v>
+        <v>1.269</v>
       </c>
       <c r="K28" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M28" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B29" t="n">
-        <v>0.002</v>
+        <v>0.106</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.147</v>
+        <v>0.106</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>120</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>26</v>
       </c>
       <c r="I29" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>722.927</v>
+        <v>2.13</v>
       </c>
       <c r="K29" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="L29" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M29" t="n">
-        <v>0.346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B30" t="n">
-        <v>0.137</v>
+        <v>0.002</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.137</v>
+        <v>0.102</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="G30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I30" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J30" t="n">
-        <v>2.19</v>
+        <v>2.444</v>
       </c>
       <c r="K30" t="s">
         <v>26</v>
       </c>
       <c r="L30" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B31" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.133</v>
+        <v>0.097</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="F31" t="n">
-        <v>124</v>
+        <v>7</v>
       </c>
       <c r="G31" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>96</v>
+        <v>21</v>
       </c>
       <c r="I31" t="s">
-        <v>91</v>
+        <v>21</v>
       </c>
       <c r="J31" t="n">
-        <v>475.646</v>
+        <v>7.837</v>
       </c>
       <c r="K31" t="s">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="L31" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2225,40 +2126,40 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003</v>
+        <v>0.019</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.129</v>
+        <v>0.097</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>123</v>
+        <v>7</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="J32" t="n">
-        <v>472.31</v>
+        <v>3.249</v>
       </c>
       <c r="K32" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="L32" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -2266,63 +2167,63 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B33" t="n">
-        <v>0.015</v>
+        <v>0.028</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.124</v>
+        <v>0.092</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G33" t="s">
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>2.098</v>
+        <v>1.225</v>
       </c>
       <c r="K33" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M33" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B34" t="n">
-        <v>0.035</v>
+        <v>0.005</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.117</v>
+        <v>0.087</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="G34" t="s">
         <v>20</v>
@@ -2331,16 +2232,16 @@
         <v>20</v>
       </c>
       <c r="I34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J34" t="n">
-        <v>1.269</v>
+        <v>2.926</v>
       </c>
       <c r="K34" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L34" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -2348,262 +2249,268 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B35" t="n">
-        <v>0.116</v>
+        <v>0.038</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.116</v>
+        <v>0.082</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="G35" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="H35" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="I35" t="s">
-        <v>69</v>
-      </c>
-      <c r="J35"/>
-      <c r="K35"/>
-      <c r="L35"/>
+        <v>20</v>
+      </c>
+      <c r="J35" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K35" t="s">
+        <v>27</v>
+      </c>
+      <c r="L35" t="s">
+        <v>21</v>
+      </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B36" t="n">
-        <v>0.003</v>
+        <v>0.054</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.112</v>
+        <v>0.08</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="J36" t="n">
-        <v>14.297</v>
+        <v>3.876</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="M36" t="n">
-        <v>0.476</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B37" t="n">
-        <v>0.106</v>
+        <v>0.035</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.106</v>
+        <v>0.076</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I37" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J37" t="n">
-        <v>2.13</v>
+        <v>3.265</v>
       </c>
       <c r="K37" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B38" t="n">
-        <v>0.002</v>
+        <v>0.009</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.102</v>
+        <v>0.075</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>2.444</v>
+        <v>2.126</v>
       </c>
       <c r="K38" t="s">
         <v>26</v>
       </c>
       <c r="L38" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M38" t="n">
-        <v>0.201</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B39" t="n">
-        <v>0.012</v>
+        <v>0.072</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.097</v>
+        <v>0.072</v>
       </c>
       <c r="E39" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="J39" t="n">
-        <v>7.837</v>
+        <v>1.896</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="L39" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B40" t="n">
-        <v>0.019</v>
+        <v>0.009</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.097</v>
+        <v>0.069</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I40" t="s">
         <v>26</v>
       </c>
       <c r="J40" t="n">
-        <v>3.249</v>
+        <v>2.143</v>
       </c>
       <c r="K40" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B41" t="n">
-        <v>0.028</v>
+        <v>0.01</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.092</v>
+        <v>0.066</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -2615,36 +2522,36 @@
         <v>20</v>
       </c>
       <c r="J41" t="n">
-        <v>1.225</v>
+        <v>1.664</v>
       </c>
       <c r="K41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L41" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002</v>
+        <v>0.024</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0.092</v>
+        <v>0.065</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G42" t="s">
         <v>20</v>
@@ -2656,36 +2563,36 @@
         <v>20</v>
       </c>
       <c r="J42" t="n">
-        <v>2.411</v>
+        <v>1.208</v>
       </c>
       <c r="K42" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L42" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M42" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B43" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.087</v>
+        <v>0.063</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
@@ -2694,16 +2601,16 @@
         <v>20</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J43" t="n">
-        <v>2.926</v>
+        <v>1.742</v>
       </c>
       <c r="K43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L43" t="s">
-        <v>113</v>
+        <v>41</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -2711,22 +2618,22 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B44" t="n">
-        <v>0.038</v>
+        <v>0.059</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.082</v>
+        <v>0.059</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -2735,80 +2642,80 @@
         <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J44" t="n">
-        <v>1.92</v>
+        <v>1.673</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L44" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M44" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B45" t="n">
-        <v>0.054</v>
+        <v>0.017</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.08</v>
+        <v>0.058</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F45" t="n">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>26</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>15</v>
+        <v>108</v>
       </c>
       <c r="J45" t="n">
-        <v>3.876</v>
+        <v>55.528</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="M45" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B46" t="n">
-        <v>0.035</v>
+        <v>0.01</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.076</v>
+        <v>0.051</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
@@ -2817,16 +2724,16 @@
         <v>20</v>
       </c>
       <c r="I46" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J46" t="n">
-        <v>3.265</v>
+        <v>1.752</v>
       </c>
       <c r="K46" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M46" t="n">
         <v>0.024</v>
@@ -2834,7 +2741,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B47" t="n">
         <v>0.009</v>
@@ -2843,7 +2750,7 @@
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.075</v>
+        <v>0.049</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
@@ -2855,19 +2762,19 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J47" t="n">
-        <v>2.126</v>
+        <v>1.7</v>
       </c>
       <c r="K47" t="s">
         <v>26</v>
       </c>
       <c r="L47" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M47" t="n">
         <v>0.024</v>
@@ -2875,22 +2782,22 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B48" t="n">
-        <v>0.072</v>
+        <v>0.011</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.072</v>
+        <v>0.047</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" t="s">
         <v>20</v>
@@ -2902,36 +2809,36 @@
         <v>26</v>
       </c>
       <c r="J48" t="n">
-        <v>1.896</v>
+        <v>1.931</v>
       </c>
       <c r="K48" t="s">
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M48" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B49" t="n">
-        <v>0.056</v>
+        <v>0.01</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.07</v>
+        <v>0.047</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G49" t="s">
         <v>20</v>
@@ -2940,39 +2847,39 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J49" t="n">
-        <v>2.243</v>
+        <v>1.921</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M49" t="n">
-        <v>0.346</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B50" t="n">
-        <v>0.009</v>
+        <v>0.046</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D50" t="n">
-        <v>0.069</v>
+        <v>0.046</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
@@ -2984,36 +2891,36 @@
         <v>26</v>
       </c>
       <c r="J50" t="n">
-        <v>2.143</v>
+        <v>1.924</v>
       </c>
       <c r="K50" t="s">
         <v>26</v>
       </c>
       <c r="L50" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M50" t="n">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01</v>
+        <v>0.024</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.066</v>
+        <v>0.043</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G51" t="s">
         <v>20</v>
@@ -3025,77 +2932,77 @@
         <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>1.664</v>
+        <v>1.35</v>
       </c>
       <c r="K51" t="s">
         <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M51" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B52" t="n">
+        <v>0.013</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>7</v>
+      </c>
+      <c r="G52" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2</v>
+      </c>
+      <c r="K52" t="s">
+        <v>26</v>
+      </c>
+      <c r="L52" t="s">
+        <v>24</v>
+      </c>
+      <c r="M52" t="n">
         <v>0.024</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>5</v>
-      </c>
-      <c r="G52" t="s">
-        <v>20</v>
-      </c>
-      <c r="H52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1.208</v>
-      </c>
-      <c r="K52" t="s">
-        <v>20</v>
-      </c>
-      <c r="L52" t="s">
-        <v>50</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B53" t="n">
-        <v>0.004</v>
+        <v>0.013</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.063</v>
+        <v>0.042</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3104,16 +3011,16 @@
         <v>20</v>
       </c>
       <c r="I53" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J53" t="n">
-        <v>1.742</v>
+        <v>1.687</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3121,16 +3028,16 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B54" t="n">
-        <v>0.022</v>
+        <v>0.005</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.063</v>
+        <v>0.04</v>
       </c>
       <c r="E54" t="n">
         <v>0</v>
@@ -3142,42 +3049,42 @@
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
         <v>26</v>
       </c>
       <c r="J54" t="n">
-        <v>1.628</v>
+        <v>2.211</v>
       </c>
       <c r="K54" t="s">
         <v>26</v>
       </c>
       <c r="L54" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M54" t="n">
-        <v>0.495</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B55" t="n">
-        <v>0.059</v>
+        <v>0.026</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.059</v>
+        <v>0.037</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
         <v>20</v>
@@ -3186,57 +3093,57 @@
         <v>20</v>
       </c>
       <c r="I55" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J55" t="n">
-        <v>1.673</v>
+        <v>1.757</v>
       </c>
       <c r="K55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L55" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B56" t="n">
-        <v>0.017</v>
+        <v>0.007</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.058</v>
+        <v>0.036</v>
       </c>
       <c r="E56" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
         <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="I56" t="s">
-        <v>128</v>
+        <v>20</v>
       </c>
       <c r="J56" t="n">
-        <v>55.528</v>
+        <v>1.499</v>
       </c>
       <c r="K56" t="s">
-        <v>129</v>
+        <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M56" t="n">
         <v>0</v>
@@ -3244,16 +3151,16 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01</v>
+        <v>0.029</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.051</v>
+        <v>0.035</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3268,16 +3175,16 @@
         <v>20</v>
       </c>
       <c r="I57" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J57" t="n">
-        <v>1.752</v>
+        <v>1.947</v>
       </c>
       <c r="K57" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L57" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="M57" t="n">
         <v>0.024</v>
@@ -3285,57 +3192,57 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B58" t="n">
-        <v>0.009</v>
+        <v>0.001</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.049</v>
+        <v>0.034</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I58" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J58" t="n">
-        <v>1.7</v>
+        <v>7.369</v>
       </c>
       <c r="K58" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L58" t="s">
-        <v>50</v>
+        <v>123</v>
       </c>
       <c r="M58" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B59" t="n">
-        <v>0.011</v>
+        <v>0.004</v>
       </c>
       <c r="C59" t="n">
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>0.047</v>
+        <v>0.029</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
@@ -3353,36 +3260,36 @@
         <v>26</v>
       </c>
       <c r="J59" t="n">
-        <v>1.931</v>
+        <v>2.144</v>
       </c>
       <c r="K59" t="s">
         <v>26</v>
       </c>
       <c r="L59" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B60" t="n">
-        <v>0.01</v>
+        <v>0.027</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.047</v>
+        <v>0.027</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
@@ -3391,16 +3298,16 @@
         <v>20</v>
       </c>
       <c r="I60" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J60" t="n">
-        <v>1.921</v>
+        <v>1.332</v>
       </c>
       <c r="K60" t="s">
         <v>26</v>
       </c>
       <c r="L60" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M60" t="n">
         <v>0.024</v>
@@ -3408,104 +3315,104 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B61" t="n">
-        <v>0.046</v>
+        <v>0.011</v>
       </c>
       <c r="C61" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.046</v>
+        <v>0.027</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>1.924</v>
+        <v>1.597</v>
       </c>
       <c r="K61" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L61" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="M61" t="n">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B62" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.044</v>
+        <v>0.026</v>
       </c>
       <c r="E62" t="n">
-        <v>0.326</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I62" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="J62" t="n">
-        <v>140.848</v>
+        <v>2.052</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M62" t="n">
-        <v>0.397</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B63" t="n">
-        <v>0.024</v>
+        <v>0.007</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.043</v>
+        <v>0.025</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -3517,13 +3424,13 @@
         <v>20</v>
       </c>
       <c r="J63" t="n">
-        <v>1.35</v>
+        <v>1.488</v>
       </c>
       <c r="K63" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L63" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3531,22 +3438,22 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B64" t="n">
-        <v>0.013</v>
+        <v>0.023</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.043</v>
+        <v>0.025</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
@@ -3555,16 +3462,16 @@
         <v>20</v>
       </c>
       <c r="I64" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>1.824</v>
       </c>
       <c r="K64" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L64" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="M64" t="n">
         <v>0.024</v>
@@ -3572,16 +3479,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
-        <v>0.013</v>
+        <v>0.004</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.042</v>
+        <v>0.024</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3596,33 +3503,33 @@
         <v>20</v>
       </c>
       <c r="I65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>1.687</v>
+        <v>1.452</v>
       </c>
       <c r="K65" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L65" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B66" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.04</v>
+        <v>0.024</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3634,19 +3541,19 @@
         <v>20</v>
       </c>
       <c r="H66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J66" t="n">
-        <v>2.211</v>
+        <v>1.447</v>
       </c>
       <c r="K66" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L66" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M66" t="n">
         <v>0.024</v>
@@ -3654,66 +3561,66 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B67" t="n">
-        <v>0.026</v>
+        <v>0.002</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.037</v>
+        <v>0.022</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I67" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J67" t="n">
-        <v>1.757</v>
+        <v>4.51</v>
       </c>
       <c r="K67" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L67" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M67" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B68" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.036</v>
+        <v>0.021</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G68" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
         <v>20</v>
@@ -3722,241 +3629,241 @@
         <v>20</v>
       </c>
       <c r="J68" t="n">
-        <v>1.499</v>
+        <v>1.816</v>
       </c>
       <c r="K68" t="s">
         <v>26</v>
       </c>
       <c r="L68" t="s">
-        <v>50</v>
+        <v>21</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B69" t="n">
-        <v>0.002</v>
+        <v>0.003</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.035</v>
+        <v>0.021</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J69" t="n">
-        <v>7.735</v>
+        <v>2.248</v>
       </c>
       <c r="K69" t="s">
-        <v>61</v>
+        <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B70" t="n">
-        <v>0.029</v>
+        <v>0.003</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.035</v>
+        <v>0.02</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
       </c>
       <c r="H70" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J70" t="n">
-        <v>1.947</v>
+        <v>4.636</v>
       </c>
       <c r="K70" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L70" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="M70" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.034</v>
+        <v>0.02</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
+        <v>9</v>
+      </c>
+      <c r="G71" t="s">
+        <v>20</v>
+      </c>
+      <c r="H71" t="s">
+        <v>20</v>
+      </c>
+      <c r="I71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.621</v>
+      </c>
+      <c r="K71" t="s">
+        <v>28</v>
+      </c>
+      <c r="L71" t="s">
         <v>41</v>
       </c>
-      <c r="G71" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" t="s">
-        <v>26</v>
-      </c>
-      <c r="I71" t="s">
-        <v>28</v>
-      </c>
-      <c r="J71" t="n">
-        <v>7.369</v>
-      </c>
-      <c r="K71" t="s">
-        <v>15</v>
-      </c>
-      <c r="L71" t="s">
-        <v>146</v>
-      </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B72" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.03</v>
+        <v>0.019</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G72" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
         <v>26</v>
       </c>
       <c r="I72" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J72" t="n">
-        <v>2.336</v>
+        <v>4.66</v>
       </c>
       <c r="K72" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L72" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="M72" t="n">
-        <v>0.301</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B73" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.029</v>
+        <v>0.019</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J73" t="n">
-        <v>2.144</v>
+        <v>2.004</v>
       </c>
       <c r="K73" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L73" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M73" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B74" t="n">
-        <v>0.027</v>
+        <v>0.006</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.027</v>
+        <v>0.019</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -3968,13 +3875,13 @@
         <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>1.332</v>
+        <v>1.686</v>
       </c>
       <c r="K74" t="s">
         <v>26</v>
       </c>
       <c r="L74" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M74" t="n">
         <v>0.024</v>
@@ -3982,22 +3889,22 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="B75" t="n">
-        <v>0.011</v>
+        <v>0.005</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -4006,16 +3913,16 @@
         <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J75" t="n">
-        <v>1.597</v>
+        <v>1.956</v>
       </c>
       <c r="K75" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L75" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M75" t="n">
         <v>0.024</v>
@@ -4023,16 +3930,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="B76" t="n">
-        <v>0.006</v>
+        <v>0.002</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.026</v>
+        <v>0.018</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -4050,13 +3957,13 @@
         <v>26</v>
       </c>
       <c r="J76" t="n">
-        <v>2.052</v>
+        <v>2.25</v>
       </c>
       <c r="K76" t="s">
         <v>26</v>
       </c>
       <c r="L76" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M76" t="n">
         <v>0.024</v>
@@ -4064,63 +3971,63 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B77" t="n">
-        <v>0.007</v>
+        <v>0.008</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.025</v>
+        <v>0.017</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
+        <v>7</v>
+      </c>
+      <c r="G77" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" t="s">
+        <v>27</v>
+      </c>
+      <c r="I77" t="s">
+        <v>28</v>
+      </c>
+      <c r="J77" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="K77" t="s">
         <v>15</v>
       </c>
-      <c r="G77" t="s">
-        <v>20</v>
-      </c>
-      <c r="H77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1.488</v>
-      </c>
-      <c r="K77" t="s">
-        <v>20</v>
-      </c>
       <c r="L77" t="s">
-        <v>113</v>
+        <v>24</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B78" t="n">
-        <v>0.023</v>
+        <v>0.003</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.025</v>
+        <v>0.015</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G78" t="s">
         <v>20</v>
@@ -4132,36 +4039,36 @@
         <v>20</v>
       </c>
       <c r="J78" t="n">
-        <v>1.824</v>
+        <v>1.204</v>
       </c>
       <c r="K78" t="s">
         <v>20</v>
       </c>
       <c r="L78" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M78" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B79" t="n">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.024</v>
+        <v>0.012</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
@@ -4170,33 +4077,33 @@
         <v>20</v>
       </c>
       <c r="I79" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J79" t="n">
-        <v>1.452</v>
+        <v>1.51</v>
       </c>
       <c r="K79" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L79" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M79" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="B80" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.024</v>
+        <v>0.011</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
@@ -4208,127 +4115,127 @@
         <v>20</v>
       </c>
       <c r="H80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J80" t="n">
-        <v>1.447</v>
+        <v>1.906</v>
       </c>
       <c r="K80" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M80" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B81" t="n">
-        <v>0.002</v>
+        <v>0.008</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I81" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J81" t="n">
-        <v>4.51</v>
+        <v>2.464</v>
       </c>
       <c r="K81" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L81" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B82" t="n">
-        <v>0.005</v>
+        <v>0.004</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.022</v>
+        <v>0.01</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I82" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J82" t="n">
-        <v>4.538</v>
+        <v>1.99</v>
       </c>
       <c r="K82" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L82" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M82" t="n">
-        <v>0.346</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B83" t="n">
-        <v>0.018</v>
+        <v>0.003</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.021</v>
+        <v>0.009</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G83" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H83" t="s">
         <v>20</v>
@@ -4337,13 +4244,13 @@
         <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>1.816</v>
+        <v>1.68</v>
       </c>
       <c r="K83" t="s">
         <v>26</v>
       </c>
       <c r="L83" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="M83" t="n">
         <v>0.024</v>
@@ -4351,16 +4258,16 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="B84" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.021</v>
+        <v>0.008</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
@@ -4378,13 +4285,13 @@
         <v>26</v>
       </c>
       <c r="J84" t="n">
-        <v>2.248</v>
+        <v>2.254</v>
       </c>
       <c r="K84" t="s">
         <v>26</v>
       </c>
       <c r="L84" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M84" t="n">
         <v>0.024</v>
@@ -4392,22 +4299,22 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="B85" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G85" t="s">
         <v>20</v>
@@ -4416,16 +4323,16 @@
         <v>26</v>
       </c>
       <c r="I85" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J85" t="n">
-        <v>4.636</v>
+        <v>1.974</v>
       </c>
       <c r="K85" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4433,22 +4340,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B86" t="n">
-        <v>0.012</v>
+        <v>0.007</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.02</v>
+        <v>0.007</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
@@ -4460,77 +4367,77 @@
         <v>20</v>
       </c>
       <c r="J86" t="n">
-        <v>2.621</v>
+        <v>1.047</v>
       </c>
       <c r="K86" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L86" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M86" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B87" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.019</v>
+        <v>0.007</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G87" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H87" t="s">
         <v>26</v>
       </c>
       <c r="I87" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J87" t="n">
-        <v>4.66</v>
+        <v>1.909</v>
       </c>
       <c r="K87" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="B88" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.019</v>
+        <v>0.006</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
         <v>20</v>
@@ -4539,16 +4446,16 @@
         <v>20</v>
       </c>
       <c r="I88" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J88" t="n">
-        <v>2.004</v>
+        <v>1.634</v>
       </c>
       <c r="K88" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M88" t="n">
         <v>0</v>
@@ -4556,22 +4463,22 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B89" t="n">
-        <v>0.006</v>
+        <v>0.001</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.019</v>
+        <v>0.005</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
         <v>20</v>
@@ -4580,39 +4487,39 @@
         <v>20</v>
       </c>
       <c r="I89" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J89" t="n">
-        <v>1.686</v>
+        <v>1.749</v>
       </c>
       <c r="K89" t="s">
         <v>26</v>
       </c>
       <c r="L89" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="M89" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B90" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0</v>
+      </c>
+      <c r="D90" t="n">
         <v>0.005</v>
       </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0.018</v>
-      </c>
       <c r="E90" t="n">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G90" t="s">
         <v>20</v>
@@ -4621,98 +4528,98 @@
         <v>20</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J90" t="n">
-        <v>1.956</v>
+        <v>1.399</v>
       </c>
       <c r="K90" t="s">
         <v>26</v>
       </c>
       <c r="L90" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M90" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0</v>
+      </c>
+      <c r="D91" t="n">
         <v>0.002</v>
       </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0.018</v>
-      </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
       </c>
       <c r="H91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J91" t="n">
-        <v>2.25</v>
+        <v>1.021</v>
       </c>
       <c r="K91" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L91" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M91" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B92" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.017</v>
+        <v>0.002</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G92" t="s">
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I92" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J92" t="n">
-        <v>4.425</v>
+        <v>1.393</v>
       </c>
       <c r="K92" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4720,40 +4627,40 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="B93" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.017</v>
+        <v>0.002</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I93" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J93" t="n">
-        <v>3.704</v>
+        <v>2.228</v>
       </c>
       <c r="K93" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L93" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="M93" t="n">
         <v>0.024</v>
@@ -4761,22 +4668,22 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B94" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.015</v>
+        <v>0.001</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G94" t="s">
         <v>20</v>
@@ -4788,13 +4695,13 @@
         <v>20</v>
       </c>
       <c r="J94" t="n">
-        <v>1.204</v>
+        <v>1.012</v>
       </c>
       <c r="K94" t="s">
         <v>20</v>
       </c>
       <c r="L94" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M94" t="n">
         <v>0</v>
@@ -4802,22 +4709,22 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B95" t="n">
-        <v>0.012</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -4826,16 +4733,16 @@
         <v>20</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J95" t="n">
-        <v>1.51</v>
+        <v>1.255</v>
       </c>
       <c r="K95" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L95" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M95" t="n">
         <v>0</v>
@@ -4843,40 +4750,40 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B96" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I96" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J96" t="n">
-        <v>1.906</v>
+        <v>1.709</v>
       </c>
       <c r="K96" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L96" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M96" t="n">
         <v>0</v>
@@ -4884,22 +4791,22 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="B97" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.011</v>
+        <v>0.001</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G97" t="s">
         <v>20</v>
@@ -4908,39 +4815,39 @@
         <v>20</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J97" t="n">
-        <v>2.464</v>
+        <v>1.024</v>
       </c>
       <c r="K97" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" t="s">
         <v>27</v>
       </c>
-      <c r="L97" t="s">
-        <v>21</v>
-      </c>
       <c r="M97" t="n">
-        <v>0.024</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B98" t="n">
-        <v>0.004</v>
+        <v>0.001</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G98" t="s">
         <v>20</v>
@@ -4949,16 +4856,16 @@
         <v>20</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J98" t="n">
-        <v>1.99</v>
+        <v>1.247</v>
       </c>
       <c r="K98" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L98" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M98" t="n">
         <v>0.024</v>
@@ -4966,16 +4873,16 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B99" t="n">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.009</v>
+        <v>0.001</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
@@ -4987,19 +4894,19 @@
         <v>20</v>
       </c>
       <c r="H99" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I99" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J99" t="n">
-        <v>1.68</v>
+        <v>2.256</v>
       </c>
       <c r="K99" t="s">
         <v>26</v>
       </c>
       <c r="L99" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M99" t="n">
         <v>0.024</v>
@@ -5007,7 +4914,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B100" t="n">
         <v>0.001</v>
@@ -5016,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.008</v>
+        <v>0.001</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
@@ -5034,13 +4941,13 @@
         <v>26</v>
       </c>
       <c r="J100" t="n">
-        <v>2.254</v>
+        <v>1.899</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M100" t="n">
         <v>0.024</v>
@@ -5048,22 +4955,22 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B101" t="n">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -5075,21 +4982,21 @@
         <v>20</v>
       </c>
       <c r="J101" t="n">
-        <v>1.724</v>
+        <v>1.169</v>
       </c>
       <c r="K101" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L101" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -5098,31 +5005,31 @@
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
       </c>
       <c r="H102" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J102" t="n">
-        <v>1.974</v>
+        <v>1.219</v>
       </c>
       <c r="K102" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L102" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5130,16 +5037,16 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B103" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="C103" t="n">
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
@@ -5157,13 +5064,13 @@
         <v>20</v>
       </c>
       <c r="J103" t="n">
-        <v>1.047</v>
+        <v>1.209</v>
       </c>
       <c r="K103" t="s">
         <v>20</v>
       </c>
       <c r="L103" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="M103" t="n">
         <v>0</v>
@@ -5171,846 +5078,34 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>179</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0</v>
-      </c>
-      <c r="D104" t="n">
-        <v>0.007</v>
-      </c>
-      <c r="E104" t="n">
-        <v>0</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="B104"/>
+      <c r="C104"/>
+      <c r="D104"/>
+      <c r="E104"/>
       <c r="F104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G104" t="s">
         <v>20</v>
       </c>
       <c r="H104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J104" t="n">
-        <v>1.909</v>
+        <v>1</v>
       </c>
       <c r="K104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L104" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M104" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>180</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0.006</v>
-      </c>
-      <c r="E105" t="n">
-        <v>0</v>
-      </c>
-      <c r="F105" t="n">
-        <v>3</v>
-      </c>
-      <c r="G105" t="s">
-        <v>20</v>
-      </c>
-      <c r="H105" t="s">
-        <v>20</v>
-      </c>
-      <c r="I105" t="s">
-        <v>26</v>
-      </c>
-      <c r="J105" t="n">
-        <v>1.634</v>
-      </c>
-      <c r="K105" t="s">
-        <v>26</v>
-      </c>
-      <c r="L105" t="s">
-        <v>50</v>
-      </c>
-      <c r="M105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>181</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E106" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3</v>
-      </c>
-      <c r="G106" t="s">
-        <v>20</v>
-      </c>
-      <c r="H106" t="s">
-        <v>20</v>
-      </c>
-      <c r="I106" t="s">
-        <v>26</v>
-      </c>
-      <c r="J106" t="n">
-        <v>1.749</v>
-      </c>
-      <c r="K106" t="s">
-        <v>26</v>
-      </c>
-      <c r="L106" t="s">
-        <v>50</v>
-      </c>
-      <c r="M106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>182</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.003</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0</v>
-      </c>
-      <c r="D107" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E107" t="n">
-        <v>0</v>
-      </c>
-      <c r="F107" t="n">
-        <v>4</v>
-      </c>
-      <c r="G107" t="s">
-        <v>20</v>
-      </c>
-      <c r="H107" t="s">
-        <v>20</v>
-      </c>
-      <c r="I107" t="s">
-        <v>20</v>
-      </c>
-      <c r="J107" t="n">
-        <v>1.399</v>
-      </c>
-      <c r="K107" t="s">
-        <v>26</v>
-      </c>
-      <c r="L107" t="s">
-        <v>50</v>
-      </c>
-      <c r="M107" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>183</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="E108" t="n">
-        <v>0</v>
-      </c>
-      <c r="F108" t="n">
-        <v>3</v>
-      </c>
-      <c r="G108" t="s">
-        <v>20</v>
-      </c>
-      <c r="H108" t="s">
-        <v>26</v>
-      </c>
-      <c r="I108" t="s">
-        <v>26</v>
-      </c>
-      <c r="J108" t="n">
-        <v>1.888</v>
-      </c>
-      <c r="K108" t="s">
-        <v>26</v>
-      </c>
-      <c r="L108" t="s">
-        <v>50</v>
-      </c>
-      <c r="M108" t="n">
-        <v>0.369</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>184</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0</v>
-      </c>
-      <c r="D109" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E109" t="n">
-        <v>0</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4</v>
-      </c>
-      <c r="G109" t="s">
-        <v>20</v>
-      </c>
-      <c r="H109" t="s">
-        <v>20</v>
-      </c>
-      <c r="I109" t="s">
-        <v>20</v>
-      </c>
-      <c r="J109" t="n">
-        <v>1.021</v>
-      </c>
-      <c r="K109" t="s">
-        <v>20</v>
-      </c>
-      <c r="L109" t="s">
-        <v>50</v>
-      </c>
-      <c r="M109" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>185</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E110" t="n">
-        <v>0</v>
-      </c>
-      <c r="F110" t="n">
-        <v>3</v>
-      </c>
-      <c r="G110" t="s">
-        <v>20</v>
-      </c>
-      <c r="H110" t="s">
-        <v>20</v>
-      </c>
-      <c r="I110" t="s">
-        <v>20</v>
-      </c>
-      <c r="J110" t="n">
-        <v>1.393</v>
-      </c>
-      <c r="K110" t="s">
-        <v>26</v>
-      </c>
-      <c r="L110" t="s">
-        <v>50</v>
-      </c>
-      <c r="M110" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>186</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0</v>
-      </c>
-      <c r="D111" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="E111" t="n">
-        <v>0</v>
-      </c>
-      <c r="F111" t="n">
-        <v>3</v>
-      </c>
-      <c r="G111" t="s">
-        <v>20</v>
-      </c>
-      <c r="H111" t="s">
-        <v>26</v>
-      </c>
-      <c r="I111" t="s">
-        <v>26</v>
-      </c>
-      <c r="J111" t="n">
-        <v>2.228</v>
-      </c>
-      <c r="K111" t="s">
-        <v>26</v>
-      </c>
-      <c r="L111" t="s">
-        <v>50</v>
-      </c>
-      <c r="M111" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>187</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E112" t="n">
-        <v>0</v>
-      </c>
-      <c r="F112" t="n">
-        <v>3</v>
-      </c>
-      <c r="G112" t="s">
-        <v>20</v>
-      </c>
-      <c r="H112" t="s">
-        <v>20</v>
-      </c>
-      <c r="I112" t="s">
-        <v>20</v>
-      </c>
-      <c r="J112" t="n">
-        <v>1.012</v>
-      </c>
-      <c r="K112" t="s">
-        <v>20</v>
-      </c>
-      <c r="L112" t="s">
-        <v>50</v>
-      </c>
-      <c r="M112" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>188</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0</v>
-      </c>
-      <c r="D113" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E113" t="n">
-        <v>0</v>
-      </c>
-      <c r="F113" t="n">
-        <v>3</v>
-      </c>
-      <c r="G113" t="s">
-        <v>20</v>
-      </c>
-      <c r="H113" t="s">
-        <v>20</v>
-      </c>
-      <c r="I113" t="s">
-        <v>20</v>
-      </c>
-      <c r="J113" t="n">
-        <v>1.255</v>
-      </c>
-      <c r="K113" t="s">
-        <v>20</v>
-      </c>
-      <c r="L113" t="s">
-        <v>50</v>
-      </c>
-      <c r="M113" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>189</v>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E114" t="n">
-        <v>0</v>
-      </c>
-      <c r="F114" t="n">
-        <v>5</v>
-      </c>
-      <c r="G114" t="s">
-        <v>20</v>
-      </c>
-      <c r="H114" t="s">
-        <v>20</v>
-      </c>
-      <c r="I114" t="s">
-        <v>20</v>
-      </c>
-      <c r="J114" t="n">
-        <v>1.709</v>
-      </c>
-      <c r="K114" t="s">
-        <v>20</v>
-      </c>
-      <c r="L114" t="s">
-        <v>50</v>
-      </c>
-      <c r="M114" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>190</v>
-      </c>
-      <c r="B115" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0</v>
-      </c>
-      <c r="D115" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E115" t="n">
-        <v>0</v>
-      </c>
-      <c r="F115" t="n">
-        <v>3</v>
-      </c>
-      <c r="G115" t="s">
-        <v>20</v>
-      </c>
-      <c r="H115" t="s">
-        <v>20</v>
-      </c>
-      <c r="I115" t="s">
-        <v>20</v>
-      </c>
-      <c r="J115" t="n">
-        <v>1.024</v>
-      </c>
-      <c r="K115" t="s">
-        <v>20</v>
-      </c>
-      <c r="L115" t="s">
-        <v>27</v>
-      </c>
-      <c r="M115" t="n">
-        <v>0.186</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>191</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>2</v>
-      </c>
-      <c r="G116" t="s">
-        <v>20</v>
-      </c>
-      <c r="H116" t="s">
-        <v>20</v>
-      </c>
-      <c r="I116" t="s">
-        <v>20</v>
-      </c>
-      <c r="J116" t="n">
-        <v>1.247</v>
-      </c>
-      <c r="K116" t="s">
-        <v>20</v>
-      </c>
-      <c r="L116" t="s">
-        <v>26</v>
-      </c>
-      <c r="M116" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>192</v>
-      </c>
-      <c r="B117" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0</v>
-      </c>
-      <c r="D117" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E117" t="n">
-        <v>0</v>
-      </c>
-      <c r="F117" t="n">
-        <v>3</v>
-      </c>
-      <c r="G117" t="s">
-        <v>20</v>
-      </c>
-      <c r="H117" t="s">
-        <v>26</v>
-      </c>
-      <c r="I117" t="s">
-        <v>26</v>
-      </c>
-      <c r="J117" t="n">
-        <v>2.256</v>
-      </c>
-      <c r="K117" t="s">
-        <v>26</v>
-      </c>
-      <c r="L117" t="s">
-        <v>50</v>
-      </c>
-      <c r="M117" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>193</v>
-      </c>
-      <c r="B118" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="E118" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" t="n">
-        <v>2</v>
-      </c>
-      <c r="G118" t="s">
-        <v>20</v>
-      </c>
-      <c r="H118" t="s">
-        <v>26</v>
-      </c>
-      <c r="I118" t="s">
-        <v>26</v>
-      </c>
-      <c r="J118" t="n">
-        <v>1.899</v>
-      </c>
-      <c r="K118" t="s">
-        <v>26</v>
-      </c>
-      <c r="L118" t="s">
-        <v>26</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>194</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>2</v>
-      </c>
-      <c r="G119" t="s">
-        <v>20</v>
-      </c>
-      <c r="H119" t="s">
-        <v>20</v>
-      </c>
-      <c r="I119" t="s">
-        <v>20</v>
-      </c>
-      <c r="J119" t="n">
-        <v>1.169</v>
-      </c>
-      <c r="K119" t="s">
-        <v>20</v>
-      </c>
-      <c r="L119" t="s">
-        <v>26</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>195</v>
-      </c>
-      <c r="B120" t="n">
-        <v>0</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0</v>
-      </c>
-      <c r="E120" t="n">
-        <v>0</v>
-      </c>
-      <c r="F120" t="n">
-        <v>2</v>
-      </c>
-      <c r="G120" t="s">
-        <v>20</v>
-      </c>
-      <c r="H120" t="s">
-        <v>20</v>
-      </c>
-      <c r="I120" t="s">
-        <v>20</v>
-      </c>
-      <c r="J120" t="n">
-        <v>1.219</v>
-      </c>
-      <c r="K120" t="s">
-        <v>20</v>
-      </c>
-      <c r="L120" t="s">
-        <v>50</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>196</v>
-      </c>
-      <c r="B121" t="n">
-        <v>0</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0</v>
-      </c>
-      <c r="D121" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" t="n">
-        <v>0</v>
-      </c>
-      <c r="F121" t="n">
-        <v>3</v>
-      </c>
-      <c r="G121" t="s">
-        <v>20</v>
-      </c>
-      <c r="H121" t="s">
-        <v>20</v>
-      </c>
-      <c r="I121" t="s">
-        <v>20</v>
-      </c>
-      <c r="J121" t="n">
-        <v>1.042</v>
-      </c>
-      <c r="K121" t="s">
-        <v>20</v>
-      </c>
-      <c r="L121" t="s">
-        <v>27</v>
-      </c>
-      <c r="M121" t="n">
-        <v>0.279</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>197</v>
-      </c>
-      <c r="B122" t="n">
-        <v>0</v>
-      </c>
-      <c r="C122" t="n">
-        <v>0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0</v>
-      </c>
-      <c r="E122" t="n">
-        <v>0</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2</v>
-      </c>
-      <c r="G122" t="s">
-        <v>20</v>
-      </c>
-      <c r="H122" t="s">
-        <v>20</v>
-      </c>
-      <c r="I122" t="s">
-        <v>20</v>
-      </c>
-      <c r="J122" t="n">
-        <v>1.209</v>
-      </c>
-      <c r="K122" t="s">
-        <v>20</v>
-      </c>
-      <c r="L122" t="s">
-        <v>50</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>198</v>
-      </c>
-      <c r="B123"/>
-      <c r="C123"/>
-      <c r="D123"/>
-      <c r="E123"/>
-      <c r="F123" t="n">
-        <v>2253</v>
-      </c>
-      <c r="G123" t="s">
-        <v>199</v>
-      </c>
-      <c r="H123" t="s">
-        <v>200</v>
-      </c>
-      <c r="I123" t="s">
-        <v>201</v>
-      </c>
-      <c r="J123" t="n">
-        <v>2866595.22</v>
-      </c>
-      <c r="K123" t="s">
-        <v>202</v>
-      </c>
-      <c r="L123" t="s">
-        <v>203</v>
-      </c>
-      <c r="M123" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>204</v>
-      </c>
-      <c r="B124"/>
-      <c r="C124"/>
-      <c r="D124"/>
-      <c r="E124"/>
-      <c r="F124" t="n">
-        <v>1</v>
-      </c>
-      <c r="G124" t="s">
-        <v>20</v>
-      </c>
-      <c r="H124" t="s">
-        <v>20</v>
-      </c>
-      <c r="I124" t="s">
-        <v>20</v>
-      </c>
-      <c r="J124" t="n">
-        <v>1</v>
-      </c>
-      <c r="K124" t="s">
-        <v>20</v>
-      </c>
-      <c r="L124" t="s">
-        <v>20</v>
-      </c>
-      <c r="M124" t="n">
         <v>0.024</v>
       </c>
     </row>

--- a/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
+++ b/data_raw/2024_census/processed/dat_ko_variables_selection.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="191">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -110,12 +110,18 @@
     <t xml:space="preserve">p41b_curso</t>
   </si>
   <si>
+    <t xml:space="preserve">p49_ocu_1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ocu_1d_19</t>
+  </si>
+  <si>
     <t xml:space="preserve">ocu_1d_13</t>
   </si>
   <si>
-    <t xml:space="preserve">99</t>
-  </si>
-  <si>
     <t xml:space="preserve">mun_nac_cod</t>
   </si>
   <si>
@@ -131,9 +137,30 @@
     <t xml:space="preserve">999999</t>
   </si>
   <si>
+    <t xml:space="preserve">act_eco_2d_19</t>
+  </si>
+  <si>
     <t xml:space="preserve">act_eco_2d_13</t>
   </si>
   <si>
+    <t xml:space="preserve">mun_lab_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21951.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">999995</t>
+  </si>
+  <si>
     <t xml:space="preserve">p40_lee</t>
   </si>
   <si>
@@ -164,9 +191,6 @@
     <t xml:space="preserve">21801</t>
   </si>
   <si>
-    <t xml:space="preserve">40902</t>
-  </si>
-  <si>
     <t xml:space="preserve">70101</t>
   </si>
   <si>
@@ -179,9 +203,6 @@
     <t xml:space="preserve">mun_res_cod</t>
   </si>
   <si>
-    <t xml:space="preserve">10101</t>
-  </si>
-  <si>
     <t xml:space="preserve">21901.75</t>
   </si>
   <si>
@@ -248,6 +269,24 @@
     <t xml:space="preserve">gedadedu</t>
   </si>
   <si>
+    <t xml:space="preserve">prov_lab_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">219.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">702</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9997</t>
+  </si>
+  <si>
     <t xml:space="preserve">g_edad_bol</t>
   </si>
   <si>
@@ -257,18 +296,12 @@
     <t xml:space="preserve">218</t>
   </si>
   <si>
-    <t xml:space="preserve">409</t>
-  </si>
-  <si>
     <t xml:space="preserve">701</t>
   </si>
   <si>
     <t xml:space="preserve">prov_res_cod</t>
   </si>
   <si>
-    <t xml:space="preserve">101</t>
-  </si>
-  <si>
     <t xml:space="preserve">219</t>
   </si>
   <si>
@@ -281,6 +314,12 @@
     <t xml:space="preserve">p42c_camina</t>
   </si>
   <si>
+    <t xml:space="preserve">p332_idiohab2_cod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">994</t>
+  </si>
+  <si>
     <t xml:space="preserve">g_edad</t>
   </si>
   <si>
@@ -296,6 +335,9 @@
     <t xml:space="preserve">p42d_comuni</t>
   </si>
   <si>
+    <t xml:space="preserve">p50_semp</t>
+  </si>
+  <si>
     <t xml:space="preserve">p24_parentes</t>
   </si>
   <si>
@@ -317,6 +359,9 @@
     <t xml:space="preserve">asiste</t>
   </si>
   <si>
+    <t xml:space="preserve">v16_desague</t>
+  </si>
+  <si>
     <t xml:space="preserve">v18j_lavadora</t>
   </si>
   <si>
@@ -329,6 +374,9 @@
     <t xml:space="preserve">p31_afiliado</t>
   </si>
   <si>
+    <t xml:space="preserve">p45_agro</t>
+  </si>
+  <si>
     <t xml:space="preserve">urbrur</t>
   </si>
   <si>
@@ -359,6 +407,9 @@
     <t xml:space="preserve">p42_discap</t>
   </si>
   <si>
+    <t xml:space="preserve">p32_pueblo_cod</t>
+  </si>
+  <si>
     <t xml:space="preserve">p42a_ver</t>
   </si>
   <si>
@@ -386,6 +437,9 @@
     <t xml:space="preserve">2227</t>
   </si>
   <si>
+    <t xml:space="preserve">p52_mov</t>
+  </si>
+  <si>
     <t xml:space="preserve">v19g_tvcable</t>
   </si>
   <si>
@@ -413,6 +467,9 @@
     <t xml:space="preserve">dep_nac_cod</t>
   </si>
   <si>
+    <t xml:space="preserve">dep_lab_cod</t>
+  </si>
+  <si>
     <t xml:space="preserve">v14_dormit</t>
   </si>
   <si>
@@ -482,6 +539,9 @@
     <t xml:space="preserve">p35_lugnac</t>
   </si>
   <si>
+    <t xml:space="preserve">p44_nego</t>
+  </si>
+  <si>
     <t xml:space="preserve">p29_ci</t>
   </si>
   <si>
@@ -516,6 +576,9 @@
   </si>
   <si>
     <t xml:space="preserve">pet_19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ft_19</t>
   </si>
   <si>
     <t xml:space="preserve">pet_13</t>
@@ -1145,13 +1208,13 @@
         <v>32</v>
       </c>
       <c r="B8" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.288</v>
+        <v>0.293</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1163,13 +1226,13 @@
         <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
         <v>30</v>
       </c>
       <c r="J8" t="n">
-        <v>9.205</v>
+        <v>9.658</v>
       </c>
       <c r="K8" t="s">
         <v>24</v>
@@ -1178,7 +1241,7 @@
         <v>33</v>
       </c>
       <c r="M8" t="n">
-        <v>0.201</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="9">
@@ -1192,66 +1255,66 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.274</v>
+        <v>0.293</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>377</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
         <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
-        <v>46418.892</v>
+        <v>9.658</v>
       </c>
       <c r="K9" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="n">
-        <v>0.016</v>
+        <v>0.001</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.269</v>
+        <v>0.288</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="J10" t="n">
-        <v>8.806</v>
+        <v>9.205</v>
       </c>
       <c r="K10" t="s">
         <v>24</v>
@@ -1265,40 +1328,40 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.274</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>377</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" t="n">
+        <v>46418.892</v>
+      </c>
+      <c r="K11" t="s">
+        <v>39</v>
+      </c>
+      <c r="L11" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.104</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.239</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.099</v>
-      </c>
-      <c r="K11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L11" t="s">
-        <v>41</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1306,163 +1369,163 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>0.21</v>
+        <v>0.009</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.234</v>
+        <v>0.27</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>73</v>
+        <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="J12" t="n">
-        <v>42.52</v>
+        <v>9.793</v>
       </c>
       <c r="K12" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B13" t="n">
-        <v>0.001</v>
+        <v>0.016</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.22</v>
+        <v>0.269</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>344</v>
+        <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>47570.256</v>
+        <v>8.806</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B14" t="n">
-        <v>0.208</v>
+        <v>0.002</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.219</v>
+        <v>0.257</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="G14" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="J14" t="n">
-        <v>9.104</v>
+        <v>72304.121</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" t="n">
-        <v>0.003</v>
+        <v>0.104</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.215</v>
+        <v>0.239</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>333</v>
+        <v>3</v>
       </c>
       <c r="G15" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="I15" t="s">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>47234.417</v>
+        <v>1.099</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="L15" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -1470,40 +1533,40 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
-        <v>0.012</v>
+        <v>0.21</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.194</v>
+        <v>0.234</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="I16" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="J16" t="n">
-        <v>6.846</v>
+        <v>42.52</v>
       </c>
       <c r="K16" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="L16" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1511,122 +1574,122 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B17" t="n">
-        <v>0.012</v>
+        <v>0.001</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.173</v>
+        <v>0.22</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>344</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>30</v>
+        <v>58</v>
       </c>
       <c r="I17" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="J17" t="n">
-        <v>14.384</v>
+        <v>47570.256</v>
       </c>
       <c r="K17" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="L17" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="M17" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B18" t="n">
-        <v>0.006</v>
+        <v>0.208</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.169</v>
+        <v>0.219</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H18" t="s">
         <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="J18" t="n">
-        <v>12.202</v>
+        <v>9.104</v>
       </c>
       <c r="K18" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="L18" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M18" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>333</v>
+      </c>
+      <c r="G19" t="s">
+        <v>44</v>
+      </c>
+      <c r="H19" t="s">
+        <v>63</v>
+      </c>
+      <c r="I19" t="s">
         <v>64</v>
       </c>
-      <c r="B19" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.167</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>123</v>
-      </c>
-      <c r="G19" t="s">
-        <v>14</v>
-      </c>
-      <c r="H19" t="s">
+      <c r="J19" t="n">
+        <v>47234.417</v>
+      </c>
+      <c r="K19" t="s">
         <v>65</v>
       </c>
-      <c r="I19" t="s">
-        <v>66</v>
-      </c>
-      <c r="J19" t="n">
-        <v>464.047</v>
-      </c>
-      <c r="K19" t="s">
-        <v>67</v>
-      </c>
       <c r="L19" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -1634,63 +1697,63 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" t="n">
-        <v>0.006</v>
+        <v>0.012</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.161</v>
+        <v>0.194</v>
       </c>
       <c r="E20" t="n">
-        <v>0.463</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G20" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>3591.497</v>
+        <v>6.846</v>
       </c>
       <c r="K20" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="M20" t="n">
-        <v>0.047</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n">
-        <v>0.015</v>
+        <v>0.012</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.159</v>
+        <v>0.173</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
@@ -1702,36 +1765,36 @@
         <v>30</v>
       </c>
       <c r="J21" t="n">
-        <v>14.979</v>
+        <v>14.384</v>
       </c>
       <c r="K21" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L21" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M21" t="n">
-        <v>0.005</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n">
-        <v>0.003</v>
+        <v>0.006</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.153</v>
+        <v>0.169</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1743,13 +1806,13 @@
         <v>30</v>
       </c>
       <c r="J22" t="n">
-        <v>17.166</v>
+        <v>12.202</v>
       </c>
       <c r="K22" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="L22" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M22" t="n">
         <v>0.003</v>
@@ -1757,116 +1820,116 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n">
-        <v>0.135</v>
+        <v>0.002</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.148</v>
+        <v>0.167</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3</v>
+        <v>123</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="I23" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="J23" t="n">
-        <v>6.043</v>
+        <v>464.047</v>
       </c>
       <c r="K23" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
+        <v>75</v>
       </c>
       <c r="M23" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.006</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.161</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="F24" t="n">
+        <v>89</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
         <v>78</v>
       </c>
-      <c r="B24" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.137</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>2</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
-      </c>
-      <c r="H24" t="s">
-        <v>26</v>
-      </c>
       <c r="I24" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="J24" t="n">
-        <v>2.19</v>
+        <v>3591.497</v>
       </c>
       <c r="K24" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="L24" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001</v>
+        <v>0.015</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.133</v>
+        <v>0.159</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>124</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="H25" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="I25" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="J25" t="n">
-        <v>475.646</v>
+        <v>14.979</v>
       </c>
       <c r="K25" t="s">
         <v>82</v>
@@ -1875,7 +1938,7 @@
         <v>68</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
     </row>
     <row r="26">
@@ -1889,48 +1952,48 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.129</v>
+        <v>0.153</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>123</v>
+        <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="H26" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="I26" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
       <c r="J26" t="n">
-        <v>472.31</v>
+        <v>17.166</v>
       </c>
       <c r="K26" t="s">
         <v>82</v>
       </c>
       <c r="L26" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" t="n">
-        <v>0.015</v>
+        <v>0.135</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.124</v>
+        <v>0.148</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -1939,80 +2002,80 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J27" t="n">
-        <v>2.098</v>
+        <v>6.043</v>
       </c>
       <c r="K27" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L27" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M27" t="n">
-        <v>0.024</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.147</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>120</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>87</v>
+      </c>
+      <c r="I28" t="s">
         <v>88</v>
       </c>
-      <c r="B28" t="n">
-        <v>0.035</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>20</v>
-      </c>
-      <c r="H28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
-        <v>20</v>
-      </c>
       <c r="J28" t="n">
-        <v>1.269</v>
+        <v>722.927</v>
       </c>
       <c r="K28" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="L28" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" t="n">
-        <v>0.106</v>
+        <v>0.137</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.106</v>
+        <v>0.137</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2030,7 +2093,7 @@
         <v>26</v>
       </c>
       <c r="J29" t="n">
-        <v>2.13</v>
+        <v>2.19</v>
       </c>
       <c r="K29" t="s">
         <v>26</v>
@@ -2044,81 +2107,81 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" t="n">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.102</v>
+        <v>0.133</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="G30" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="J30" t="n">
-        <v>2.444</v>
+        <v>475.646</v>
       </c>
       <c r="K30" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="L30" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="M30" t="n">
-        <v>0.201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B31" t="n">
-        <v>0.012</v>
+        <v>0.003</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.097</v>
+        <v>0.129</v>
       </c>
       <c r="E31" t="n">
-        <v>0.152</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="G31" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>21</v>
+        <v>96</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="J31" t="n">
-        <v>7.837</v>
+        <v>472.31</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="L31" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -2126,57 +2189,57 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B32" t="n">
-        <v>0.019</v>
+        <v>0.015</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.097</v>
+        <v>0.124</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G32" t="s">
         <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
       </c>
       <c r="J32" t="n">
-        <v>3.249</v>
+        <v>2.098</v>
       </c>
       <c r="K32" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L32" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B33" t="n">
-        <v>0.028</v>
+        <v>0.035</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.092</v>
+        <v>0.117</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2194,13 +2257,13 @@
         <v>20</v>
       </c>
       <c r="J33" t="n">
-        <v>1.225</v>
+        <v>1.269</v>
       </c>
       <c r="K33" t="s">
         <v>20</v>
       </c>
       <c r="L33" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -2208,98 +2271,98 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005</v>
+        <v>0.003</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.087</v>
+        <v>0.112</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G34" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H34" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="I34" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
-        <v>2.926</v>
+        <v>14.297</v>
       </c>
       <c r="K34" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="L34" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>0.476</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B35" t="n">
-        <v>0.038</v>
+        <v>0.106</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.082</v>
+        <v>0.106</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I35" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J35" t="n">
-        <v>1.92</v>
+        <v>2.13</v>
       </c>
       <c r="K35" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
         <v>27</v>
       </c>
-      <c r="L35" t="s">
-        <v>21</v>
-      </c>
       <c r="M35" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B36" t="n">
-        <v>0.054</v>
+        <v>0.002</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0.08</v>
+        <v>0.102</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2311,206 +2374,206 @@
         <v>20</v>
       </c>
       <c r="H36" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I36" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="J36" t="n">
-        <v>3.876</v>
+        <v>2.444</v>
       </c>
       <c r="K36" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L36" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M36" t="n">
-        <v>0.024</v>
+        <v>0.201</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B37" t="n">
-        <v>0.035</v>
+        <v>0.012</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.076</v>
+        <v>0.097</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.152</v>
       </c>
       <c r="F37" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G37" t="s">
         <v>20</v>
       </c>
       <c r="H37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="J37" t="n">
-        <v>3.265</v>
+        <v>7.837</v>
       </c>
       <c r="K37" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="L37" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M37" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009</v>
+        <v>0.019</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0.075</v>
+        <v>0.097</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G38" t="s">
         <v>20</v>
       </c>
       <c r="H38" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I38" t="s">
         <v>26</v>
       </c>
       <c r="J38" t="n">
-        <v>2.126</v>
+        <v>3.249</v>
       </c>
       <c r="K38" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L38" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M38" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B39" t="n">
-        <v>0.072</v>
+        <v>0.028</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0.072</v>
+        <v>0.092</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G39" t="s">
         <v>20</v>
       </c>
       <c r="H39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J39" t="n">
-        <v>1.896</v>
+        <v>1.225</v>
       </c>
       <c r="K39" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L39" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M39" t="n">
-        <v>0.041</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B40" t="n">
-        <v>0.009</v>
+        <v>0.002</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0.069</v>
+        <v>0.092</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G40" t="s">
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I40" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J40" t="n">
-        <v>2.143</v>
+        <v>2.411</v>
       </c>
       <c r="K40" t="s">
         <v>26</v>
       </c>
       <c r="L40" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M40" t="n">
-        <v>0.024</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01</v>
+        <v>0.005</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0.066</v>
+        <v>0.087</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="G41" t="s">
         <v>20</v>
@@ -2519,121 +2582,121 @@
         <v>20</v>
       </c>
       <c r="I41" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J41" t="n">
-        <v>1.664</v>
+        <v>2.926</v>
       </c>
       <c r="K41" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L41" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="M41" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B42" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.082</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K42" t="s">
+        <v>27</v>
+      </c>
+      <c r="L42" t="s">
+        <v>21</v>
+      </c>
+      <c r="M42" t="n">
         <v>0.024</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.065</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>5</v>
-      </c>
-      <c r="G42" t="s">
-        <v>20</v>
-      </c>
-      <c r="H42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1.208</v>
-      </c>
-      <c r="K42" t="s">
-        <v>20</v>
-      </c>
-      <c r="L42" t="s">
-        <v>41</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B43" t="n">
-        <v>0.004</v>
+        <v>0.054</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.063</v>
+        <v>0.08</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G43" t="s">
         <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I43" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J43" t="n">
-        <v>1.742</v>
+        <v>3.876</v>
       </c>
       <c r="K43" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="B44" t="n">
-        <v>0.059</v>
+        <v>0.035</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.059</v>
+        <v>0.076</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G44" t="s">
         <v>20</v>
@@ -2642,121 +2705,121 @@
         <v>20</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J44" t="n">
-        <v>1.673</v>
+        <v>3.265</v>
       </c>
       <c r="K44" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B45" t="n">
-        <v>0.017</v>
+        <v>0.009</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.058</v>
+        <v>0.075</v>
       </c>
       <c r="E45" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="G45" t="s">
         <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="J45" t="n">
-        <v>55.528</v>
+        <v>2.126</v>
       </c>
       <c r="K45" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="L45" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01</v>
+        <v>0.072</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.051</v>
+        <v>0.072</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G46" t="s">
         <v>20</v>
       </c>
       <c r="H46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J46" t="n">
-        <v>1.752</v>
+        <v>1.896</v>
       </c>
       <c r="K46" t="s">
         <v>26</v>
       </c>
       <c r="L46" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M46" t="n">
-        <v>0.024</v>
+        <v>0.041</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B47" t="n">
-        <v>0.009</v>
+        <v>0.056</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
       </c>
       <c r="D47" t="n">
-        <v>0.049</v>
+        <v>0.07</v>
       </c>
       <c r="E47" t="n">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G47" t="s">
         <v>20</v>
@@ -2765,33 +2828,33 @@
         <v>20</v>
       </c>
       <c r="I47" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J47" t="n">
-        <v>1.7</v>
+        <v>2.243</v>
       </c>
       <c r="K47" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L47" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="M47" t="n">
-        <v>0.024</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B48" t="n">
-        <v>0.011</v>
+        <v>0.009</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.047</v>
+        <v>0.069</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -2809,21 +2872,21 @@
         <v>26</v>
       </c>
       <c r="J48" t="n">
-        <v>1.931</v>
+        <v>2.143</v>
       </c>
       <c r="K48" t="s">
         <v>26</v>
       </c>
       <c r="L48" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B49" t="n">
         <v>0.01</v>
@@ -2832,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>0.047</v>
+        <v>0.066</v>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -2847,16 +2910,16 @@
         <v>20</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J49" t="n">
-        <v>1.921</v>
+        <v>1.664</v>
       </c>
       <c r="K49" t="s">
         <v>26</v>
       </c>
       <c r="L49" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M49" t="n">
         <v>0.024</v>
@@ -2864,57 +2927,57 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B50" t="n">
-        <v>0.046</v>
+        <v>0.024</v>
       </c>
       <c r="C50" t="n">
-        <v>0.189</v>
+        <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>0.046</v>
+        <v>0.065</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G50" t="s">
         <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J50" t="n">
-        <v>1.924</v>
+        <v>1.208</v>
       </c>
       <c r="K50" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L50" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M50" t="n">
-        <v>0.014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B51" t="n">
-        <v>0.024</v>
+        <v>0.004</v>
       </c>
       <c r="C51" t="n">
         <v>0</v>
       </c>
       <c r="D51" t="n">
-        <v>0.043</v>
+        <v>0.063</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
@@ -2932,13 +2995,13 @@
         <v>20</v>
       </c>
       <c r="J51" t="n">
-        <v>1.35</v>
+        <v>1.742</v>
       </c>
       <c r="K51" t="s">
         <v>26</v>
       </c>
       <c r="L51" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M51" t="n">
         <v>0</v>
@@ -2946,22 +3009,22 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B52" t="n">
-        <v>0.013</v>
+        <v>0.022</v>
       </c>
       <c r="C52" t="n">
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>0.043</v>
+        <v>0.063</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
         <v>20</v>
@@ -2973,36 +3036,36 @@
         <v>26</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>1.628</v>
       </c>
       <c r="K52" t="s">
         <v>26</v>
       </c>
       <c r="L52" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M52" t="n">
-        <v>0.024</v>
+        <v>0.495</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B53" t="n">
-        <v>0.013</v>
+        <v>0.059</v>
       </c>
       <c r="C53" t="n">
         <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.042</v>
+        <v>0.059</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G53" t="s">
         <v>20</v>
@@ -3014,13 +3077,13 @@
         <v>26</v>
       </c>
       <c r="J53" t="n">
-        <v>1.687</v>
+        <v>1.673</v>
       </c>
       <c r="K53" t="s">
         <v>26</v>
       </c>
       <c r="L53" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M53" t="n">
         <v>0</v>
@@ -3028,57 +3091,57 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B54" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>0.04</v>
+        <v>0.058</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F54" t="n">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
         <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="I54" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="J54" t="n">
-        <v>2.211</v>
+        <v>55.528</v>
       </c>
       <c r="K54" t="s">
-        <v>26</v>
+        <v>125</v>
       </c>
       <c r="L54" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M54" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B55" t="n">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>0.037</v>
+        <v>0.051</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3096,13 +3159,13 @@
         <v>20</v>
       </c>
       <c r="J55" t="n">
-        <v>1.757</v>
+        <v>1.752</v>
       </c>
       <c r="K55" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L55" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M55" t="n">
         <v>0.024</v>
@@ -3110,16 +3173,16 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="B56" t="n">
-        <v>0.007</v>
+        <v>0.009</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>0.036</v>
+        <v>0.049</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -3137,30 +3200,30 @@
         <v>20</v>
       </c>
       <c r="J56" t="n">
-        <v>1.499</v>
+        <v>1.7</v>
       </c>
       <c r="K56" t="s">
         <v>26</v>
       </c>
       <c r="L56" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B57" t="n">
-        <v>0.029</v>
+        <v>0.011</v>
       </c>
       <c r="C57" t="n">
         <v>0</v>
       </c>
       <c r="D57" t="n">
-        <v>0.035</v>
+        <v>0.047</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -3172,83 +3235,83 @@
         <v>20</v>
       </c>
       <c r="H57" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I57" t="s">
         <v>26</v>
       </c>
       <c r="J57" t="n">
-        <v>1.947</v>
+        <v>1.931</v>
       </c>
       <c r="K57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L57" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M57" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B58" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="C58" t="n">
         <v>0</v>
       </c>
       <c r="D58" t="n">
-        <v>0.034</v>
+        <v>0.047</v>
       </c>
       <c r="E58" t="n">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="G58" t="s">
         <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I58" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J58" t="n">
-        <v>7.369</v>
+        <v>1.921</v>
       </c>
       <c r="K58" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="L58" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B59" t="n">
-        <v>0.004</v>
+        <v>0.046</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="D59" t="n">
-        <v>0.029</v>
+        <v>0.046</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G59" t="s">
         <v>20</v>
@@ -3260,77 +3323,77 @@
         <v>26</v>
       </c>
       <c r="J59" t="n">
-        <v>2.144</v>
+        <v>1.924</v>
       </c>
       <c r="K59" t="s">
         <v>26</v>
       </c>
       <c r="L59" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M59" t="n">
-        <v>0.024</v>
+        <v>0.014</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B60" t="n">
-        <v>0.027</v>
+        <v>0.001</v>
       </c>
       <c r="C60" t="n">
         <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>0.027</v>
+        <v>0.044</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.326</v>
       </c>
       <c r="F60" t="n">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G60" t="s">
         <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I60" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="J60" t="n">
-        <v>1.332</v>
+        <v>140.848</v>
       </c>
       <c r="K60" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="M60" t="n">
-        <v>0.024</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B61" t="n">
-        <v>0.011</v>
+        <v>0.024</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>0.027</v>
+        <v>0.043</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G61" t="s">
         <v>20</v>
@@ -3342,54 +3405,54 @@
         <v>20</v>
       </c>
       <c r="J61" t="n">
-        <v>1.597</v>
+        <v>1.35</v>
       </c>
       <c r="K61" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L61" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M61" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B62" t="n">
-        <v>0.006</v>
+        <v>0.013</v>
       </c>
       <c r="C62" t="n">
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>0.026</v>
+        <v>0.043</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G62" t="s">
         <v>20</v>
       </c>
       <c r="H62" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I62" t="s">
         <v>26</v>
       </c>
       <c r="J62" t="n">
-        <v>2.052</v>
+        <v>2</v>
       </c>
       <c r="K62" t="s">
         <v>26</v>
       </c>
       <c r="L62" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M62" t="n">
         <v>0.024</v>
@@ -3397,22 +3460,22 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="B63" t="n">
-        <v>0.007</v>
+        <v>0.013</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
       </c>
       <c r="D63" t="n">
-        <v>0.025</v>
+        <v>0.042</v>
       </c>
       <c r="E63" t="n">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
         <v>20</v>
@@ -3421,16 +3484,16 @@
         <v>20</v>
       </c>
       <c r="I63" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J63" t="n">
-        <v>1.488</v>
+        <v>1.687</v>
       </c>
       <c r="K63" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L63" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="M63" t="n">
         <v>0</v>
@@ -3438,40 +3501,40 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B64" t="n">
-        <v>0.023</v>
+        <v>0.005</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>0.025</v>
+        <v>0.04</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I64" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J64" t="n">
-        <v>1.824</v>
+        <v>2.211</v>
       </c>
       <c r="K64" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L64" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="M64" t="n">
         <v>0.024</v>
@@ -3479,16 +3542,16 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B65" t="n">
-        <v>0.004</v>
+        <v>0.026</v>
       </c>
       <c r="C65" t="n">
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>0.024</v>
+        <v>0.037</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
@@ -3506,13 +3569,13 @@
         <v>20</v>
       </c>
       <c r="J65" t="n">
-        <v>1.452</v>
+        <v>1.757</v>
       </c>
       <c r="K65" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="L65" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="M65" t="n">
         <v>0.024</v>
@@ -3520,16 +3583,16 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B66" t="n">
-        <v>0.004</v>
+        <v>0.007</v>
       </c>
       <c r="C66" t="n">
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>0.024</v>
+        <v>0.036</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -3547,118 +3610,118 @@
         <v>20</v>
       </c>
       <c r="J66" t="n">
-        <v>1.447</v>
+        <v>1.499</v>
       </c>
       <c r="K66" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M66" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B67" t="n">
-        <v>0.002</v>
+        <v>0.029</v>
       </c>
       <c r="C67" t="n">
         <v>0</v>
       </c>
       <c r="D67" t="n">
-        <v>0.022</v>
+        <v>0.035</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G67" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I67" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J67" t="n">
-        <v>4.51</v>
+        <v>1.947</v>
       </c>
       <c r="K67" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="L67" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B68" t="n">
-        <v>0.018</v>
+        <v>0.001</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
       </c>
       <c r="D68" t="n">
-        <v>0.021</v>
+        <v>0.034</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="G68" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H68" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I68" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J68" t="n">
-        <v>1.816</v>
+        <v>7.369</v>
       </c>
       <c r="K68" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L68" t="s">
-        <v>21</v>
+        <v>140</v>
       </c>
       <c r="M68" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B69" t="n">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
         <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.021</v>
+        <v>0.03</v>
       </c>
       <c r="E69" t="n">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G69" t="s">
         <v>20</v>
@@ -3670,36 +3733,36 @@
         <v>26</v>
       </c>
       <c r="J69" t="n">
-        <v>2.248</v>
+        <v>2.336</v>
       </c>
       <c r="K69" t="s">
         <v>26</v>
       </c>
       <c r="L69" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M69" t="n">
-        <v>0.024</v>
+        <v>0.301</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B70" t="n">
-        <v>0.003</v>
+        <v>0.004</v>
       </c>
       <c r="C70" t="n">
         <v>0</v>
       </c>
       <c r="D70" t="n">
-        <v>0.02</v>
+        <v>0.029</v>
       </c>
       <c r="E70" t="n">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G70" t="s">
         <v>20</v>
@@ -3708,39 +3771,39 @@
         <v>26</v>
       </c>
       <c r="I70" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J70" t="n">
-        <v>4.636</v>
+        <v>2.144</v>
       </c>
       <c r="K70" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L70" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B71" t="n">
-        <v>0.012</v>
+        <v>0.027</v>
       </c>
       <c r="C71" t="n">
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>0.02</v>
+        <v>0.027</v>
       </c>
       <c r="E71" t="n">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
         <v>20</v>
@@ -3752,13 +3815,13 @@
         <v>20</v>
       </c>
       <c r="J71" t="n">
-        <v>2.621</v>
+        <v>1.332</v>
       </c>
       <c r="K71" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L71" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M71" t="n">
         <v>0.024</v>
@@ -3766,104 +3829,104 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="C72" t="n">
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>0.019</v>
+        <v>0.027</v>
       </c>
       <c r="E72" t="n">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="H72" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I72" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J72" t="n">
-        <v>4.66</v>
+        <v>1.597</v>
       </c>
       <c r="K72" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L72" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B73" t="n">
-        <v>0.012</v>
+        <v>0.006</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
       </c>
       <c r="D73" t="n">
-        <v>0.019</v>
+        <v>0.026</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G73" t="s">
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I73" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J73" t="n">
-        <v>2.004</v>
+        <v>2.052</v>
       </c>
       <c r="K73" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L73" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B74" t="n">
-        <v>0.006</v>
+        <v>0.007</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>0.019</v>
+        <v>0.025</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="G74" t="s">
         <v>20</v>
@@ -3875,36 +3938,36 @@
         <v>20</v>
       </c>
       <c r="J74" t="n">
-        <v>1.686</v>
+        <v>1.488</v>
       </c>
       <c r="K74" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L74" t="s">
-        <v>15</v>
+        <v>109</v>
       </c>
       <c r="M74" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B75" t="n">
-        <v>0.005</v>
+        <v>0.023</v>
       </c>
       <c r="C75" t="n">
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.018</v>
+        <v>0.025</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" t="s">
         <v>20</v>
@@ -3913,16 +3976,16 @@
         <v>20</v>
       </c>
       <c r="I75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J75" t="n">
-        <v>1.956</v>
+        <v>1.824</v>
       </c>
       <c r="K75" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L75" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="M75" t="n">
         <v>0.024</v>
@@ -3930,16 +3993,16 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B76" t="n">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="C76" t="n">
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>0.018</v>
+        <v>0.024</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
@@ -3951,19 +4014,19 @@
         <v>20</v>
       </c>
       <c r="H76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J76" t="n">
-        <v>2.25</v>
+        <v>1.452</v>
       </c>
       <c r="K76" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L76" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M76" t="n">
         <v>0.024</v>
@@ -3971,40 +4034,40 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B77" t="n">
-        <v>0.008</v>
+        <v>0.004</v>
       </c>
       <c r="C77" t="n">
         <v>0</v>
       </c>
       <c r="D77" t="n">
-        <v>0.017</v>
+        <v>0.024</v>
       </c>
       <c r="E77" t="n">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G77" t="s">
         <v>20</v>
       </c>
       <c r="H77" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J77" t="n">
-        <v>3.704</v>
+        <v>1.447</v>
       </c>
       <c r="K77" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L77" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M77" t="n">
         <v>0.024</v>
@@ -4012,40 +4075,40 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B78" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C78" t="n">
         <v>0</v>
       </c>
       <c r="D78" t="n">
-        <v>0.015</v>
+        <v>0.022</v>
       </c>
       <c r="E78" t="n">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G78" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I78" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J78" t="n">
-        <v>1.204</v>
+        <v>4.51</v>
       </c>
       <c r="K78" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L78" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M78" t="n">
         <v>0</v>
@@ -4053,122 +4116,122 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B79" t="n">
-        <v>0.012</v>
+        <v>0.005</v>
       </c>
       <c r="C79" t="n">
         <v>0</v>
       </c>
       <c r="D79" t="n">
-        <v>0.012</v>
+        <v>0.022</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G79" t="s">
         <v>20</v>
       </c>
       <c r="H79" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I79" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J79" t="n">
-        <v>1.51</v>
+        <v>4.538</v>
       </c>
       <c r="K79" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L79" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B80" t="n">
-        <v>0.003</v>
+        <v>0.018</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G80" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I80" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J80" t="n">
-        <v>1.906</v>
+        <v>1.816</v>
       </c>
       <c r="K80" t="s">
         <v>26</v>
       </c>
       <c r="L80" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B81" t="n">
-        <v>0.008</v>
+        <v>0.003</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
       </c>
       <c r="D81" t="n">
-        <v>0.011</v>
+        <v>0.021</v>
       </c>
       <c r="E81" t="n">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G81" t="s">
         <v>20</v>
       </c>
       <c r="H81" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I81" t="s">
         <v>26</v>
       </c>
       <c r="J81" t="n">
-        <v>2.464</v>
+        <v>2.248</v>
       </c>
       <c r="K81" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="L81" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="M81" t="n">
         <v>0.024</v>
@@ -4176,63 +4239,63 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B82" t="n">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E82" t="n">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G82" t="s">
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I82" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J82" t="n">
-        <v>1.99</v>
+        <v>4.636</v>
       </c>
       <c r="K82" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L82" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M82" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B83" t="n">
-        <v>0.003</v>
+        <v>0.012</v>
       </c>
       <c r="C83" t="n">
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>0.009</v>
+        <v>0.02</v>
       </c>
       <c r="E83" t="n">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
         <v>20</v>
@@ -4244,13 +4307,13 @@
         <v>20</v>
       </c>
       <c r="J83" t="n">
-        <v>1.68</v>
+        <v>2.621</v>
       </c>
       <c r="K83" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L83" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M83" t="n">
         <v>0.024</v>
@@ -4258,7 +4321,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B84" t="n">
         <v>0.001</v>
@@ -4267,72 +4330,72 @@
         <v>0</v>
       </c>
       <c r="D84" t="n">
-        <v>0.008</v>
+        <v>0.019</v>
       </c>
       <c r="E84" t="n">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G84" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
         <v>26</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J84" t="n">
-        <v>2.254</v>
+        <v>4.66</v>
       </c>
       <c r="K84" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L84" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="M84" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C85" t="n">
         <v>0</v>
       </c>
       <c r="D85" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
       <c r="E85" t="n">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G85" t="s">
         <v>20</v>
       </c>
       <c r="H85" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="J85" t="n">
-        <v>1.974</v>
+        <v>2.004</v>
       </c>
       <c r="K85" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L85" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M85" t="n">
         <v>0</v>
@@ -4340,22 +4403,22 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B86" t="n">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
       </c>
       <c r="D86" t="n">
-        <v>0.007</v>
+        <v>0.019</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G86" t="s">
         <v>20</v>
@@ -4367,54 +4430,54 @@
         <v>20</v>
       </c>
       <c r="J86" t="n">
-        <v>1.047</v>
+        <v>1.686</v>
       </c>
       <c r="K86" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L86" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B87" t="n">
-        <v>0.007</v>
+        <v>0.005</v>
       </c>
       <c r="C87" t="n">
         <v>0</v>
       </c>
       <c r="D87" t="n">
-        <v>0.007</v>
+        <v>0.018</v>
       </c>
       <c r="E87" t="n">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
         <v>20</v>
       </c>
       <c r="H87" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I87" t="s">
         <v>26</v>
       </c>
       <c r="J87" t="n">
-        <v>1.909</v>
+        <v>1.956</v>
       </c>
       <c r="K87" t="s">
         <v>26</v>
       </c>
       <c r="L87" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M87" t="n">
         <v>0.024</v>
@@ -4422,16 +4485,16 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B88" t="n">
-        <v>0.003</v>
+        <v>0.002</v>
       </c>
       <c r="C88" t="n">
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>0.006</v>
+        <v>0.018</v>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -4443,68 +4506,68 @@
         <v>20</v>
       </c>
       <c r="H88" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I88" t="s">
         <v>26</v>
       </c>
       <c r="J88" t="n">
-        <v>1.634</v>
+        <v>2.25</v>
       </c>
       <c r="K88" t="s">
         <v>26</v>
       </c>
       <c r="L88" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M88" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B89" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="C89" t="n">
         <v>0</v>
       </c>
       <c r="D89" t="n">
-        <v>0.005</v>
+        <v>0.017</v>
       </c>
       <c r="E89" t="n">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G89" t="s">
         <v>20</v>
       </c>
       <c r="H89" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="J89" t="n">
-        <v>1.749</v>
+        <v>3.704</v>
       </c>
       <c r="K89" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="L89" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B90" t="n">
         <v>0.003</v>
@@ -4513,7 +4576,7 @@
         <v>0</v>
       </c>
       <c r="D90" t="n">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
       <c r="E90" t="n">
         <v>0</v>
@@ -4531,13 +4594,13 @@
         <v>20</v>
       </c>
       <c r="J90" t="n">
-        <v>1.399</v>
+        <v>1.204</v>
       </c>
       <c r="K90" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L90" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M90" t="n">
         <v>0</v>
@@ -4545,22 +4608,22 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="C91" t="n">
         <v>0</v>
       </c>
       <c r="D91" t="n">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
       <c r="E91" t="n">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G91" t="s">
         <v>20</v>
@@ -4569,16 +4632,16 @@
         <v>20</v>
       </c>
       <c r="I91" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J91" t="n">
-        <v>1.021</v>
+        <v>1.51</v>
       </c>
       <c r="K91" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L91" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M91" t="n">
         <v>0</v>
@@ -4586,16 +4649,16 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B92" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
@@ -4607,19 +4670,19 @@
         <v>20</v>
       </c>
       <c r="H92" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I92" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J92" t="n">
-        <v>1.393</v>
+        <v>1.906</v>
       </c>
       <c r="K92" t="s">
         <v>26</v>
       </c>
       <c r="L92" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M92" t="n">
         <v>0</v>
@@ -4627,40 +4690,40 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B93" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="C93" t="n">
         <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.002</v>
+        <v>0.011</v>
       </c>
       <c r="E93" t="n">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G93" t="s">
         <v>20</v>
       </c>
       <c r="H93" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I93" t="s">
         <v>26</v>
       </c>
       <c r="J93" t="n">
-        <v>2.228</v>
+        <v>2.464</v>
       </c>
       <c r="K93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="L93" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M93" t="n">
         <v>0.024</v>
@@ -4668,16 +4731,16 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B94" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="C94" t="n">
         <v>0</v>
       </c>
       <c r="D94" t="n">
-        <v>0.001</v>
+        <v>0.01</v>
       </c>
       <c r="E94" t="n">
         <v>0</v>
@@ -4692,33 +4755,33 @@
         <v>20</v>
       </c>
       <c r="I94" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J94" t="n">
-        <v>1.012</v>
+        <v>1.99</v>
       </c>
       <c r="K94" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L94" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B95" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C95" t="n">
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.001</v>
+        <v>0.009</v>
       </c>
       <c r="E95" t="n">
         <v>0</v>
@@ -4736,71 +4799,71 @@
         <v>20</v>
       </c>
       <c r="J95" t="n">
-        <v>1.255</v>
+        <v>1.68</v>
       </c>
       <c r="K95" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L95" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B96" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C96" t="n">
         <v>0</v>
       </c>
       <c r="D96" t="n">
-        <v>0.001</v>
+        <v>0.008</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G96" t="s">
         <v>20</v>
       </c>
       <c r="H96" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I96" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J96" t="n">
-        <v>1.709</v>
+        <v>2.254</v>
       </c>
       <c r="K96" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L96" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="B97" t="n">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="C97" t="n">
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
@@ -4812,36 +4875,36 @@
         <v>20</v>
       </c>
       <c r="H97" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I97" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J97" t="n">
-        <v>1.024</v>
+        <v>1.974</v>
       </c>
       <c r="K97" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L97" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="M97" t="n">
-        <v>0.186</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C98" t="n">
         <v>0</v>
       </c>
       <c r="D98" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E98" t="n">
         <v>0</v>
@@ -4859,7 +4922,7 @@
         <v>20</v>
       </c>
       <c r="J98" t="n">
-        <v>1.247</v>
+        <v>1.047</v>
       </c>
       <c r="K98" t="s">
         <v>20</v>
@@ -4868,27 +4931,27 @@
         <v>26</v>
       </c>
       <c r="M98" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B99" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="C99" t="n">
         <v>0</v>
       </c>
       <c r="D99" t="n">
-        <v>0.001</v>
+        <v>0.007</v>
       </c>
       <c r="E99" t="n">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G99" t="s">
         <v>20</v>
@@ -4900,13 +4963,13 @@
         <v>26</v>
       </c>
       <c r="J99" t="n">
-        <v>2.256</v>
+        <v>1.909</v>
       </c>
       <c r="K99" t="s">
         <v>26</v>
       </c>
       <c r="L99" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M99" t="n">
         <v>0.024</v>
@@ -4914,63 +4977,63 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B100" t="n">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="C100" t="n">
         <v>0</v>
       </c>
       <c r="D100" t="n">
-        <v>0.001</v>
+        <v>0.006</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I100" t="s">
         <v>26</v>
       </c>
       <c r="J100" t="n">
-        <v>1.899</v>
+        <v>1.634</v>
       </c>
       <c r="K100" t="s">
         <v>26</v>
       </c>
       <c r="L100" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M100" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B101" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="C101" t="n">
         <v>0</v>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G101" t="s">
         <v>20</v>
@@ -4979,39 +5042,39 @@
         <v>20</v>
       </c>
       <c r="I101" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J101" t="n">
-        <v>1.169</v>
+        <v>1.749</v>
       </c>
       <c r="K101" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L101" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="M101" t="n">
-        <v>0.018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B102" t="n">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="C102" t="n">
         <v>0</v>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E102" t="n">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G102" t="s">
         <v>20</v>
@@ -5023,13 +5086,13 @@
         <v>20</v>
       </c>
       <c r="J102" t="n">
-        <v>1.219</v>
+        <v>1.399</v>
       </c>
       <c r="K102" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L102" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M102" t="n">
         <v>0</v>
@@ -5037,7 +5100,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -5046,66 +5109,640 @@
         <v>0</v>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="E103" t="n">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G103" t="s">
         <v>20</v>
       </c>
       <c r="H103" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I103" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J103" t="n">
-        <v>1.209</v>
+        <v>1.888</v>
       </c>
       <c r="K103" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L103" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>169</v>
-      </c>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104"/>
+        <v>176</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
       <c r="F104" t="n">
+        <v>4</v>
+      </c>
+      <c r="G104" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" t="s">
+        <v>20</v>
+      </c>
+      <c r="I104" t="s">
+        <v>20</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.021</v>
+      </c>
+      <c r="K104" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" t="s">
+        <v>50</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>177</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="n">
+        <v>3</v>
+      </c>
+      <c r="G105" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" t="s">
+        <v>20</v>
+      </c>
+      <c r="I105" t="s">
+        <v>20</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="K105" t="s">
+        <v>26</v>
+      </c>
+      <c r="L105" t="s">
+        <v>50</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>178</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>3</v>
+      </c>
+      <c r="G106" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" t="s">
+        <v>26</v>
+      </c>
+      <c r="I106" t="s">
+        <v>26</v>
+      </c>
+      <c r="J106" t="n">
+        <v>2.228</v>
+      </c>
+      <c r="K106" t="s">
+        <v>26</v>
+      </c>
+      <c r="L106" t="s">
+        <v>50</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>179</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>20</v>
+      </c>
+      <c r="H107" t="s">
+        <v>20</v>
+      </c>
+      <c r="I107" t="s">
+        <v>20</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.012</v>
+      </c>
+      <c r="K107" t="s">
+        <v>20</v>
+      </c>
+      <c r="L107" t="s">
+        <v>50</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>180</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>3</v>
+      </c>
+      <c r="G108" t="s">
+        <v>20</v>
+      </c>
+      <c r="H108" t="s">
+        <v>20</v>
+      </c>
+      <c r="I108" t="s">
+        <v>20</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="K108" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" t="s">
+        <v>50</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>181</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>20</v>
+      </c>
+      <c r="H109" t="s">
+        <v>20</v>
+      </c>
+      <c r="I109" t="s">
+        <v>20</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="K109" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" t="s">
+        <v>50</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>182</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>3</v>
+      </c>
+      <c r="G110" t="s">
+        <v>20</v>
+      </c>
+      <c r="H110" t="s">
+        <v>20</v>
+      </c>
+      <c r="I110" t="s">
+        <v>20</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.024</v>
+      </c>
+      <c r="K110" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" t="s">
+        <v>27</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0.186</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>183</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" t="s">
+        <v>20</v>
+      </c>
+      <c r="I111" t="s">
+        <v>20</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.247</v>
+      </c>
+      <c r="K111" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" t="s">
+        <v>26</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>184</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>3</v>
+      </c>
+      <c r="G112" t="s">
+        <v>20</v>
+      </c>
+      <c r="H112" t="s">
+        <v>26</v>
+      </c>
+      <c r="I112" t="s">
+        <v>26</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="K112" t="s">
+        <v>26</v>
+      </c>
+      <c r="L112" t="s">
+        <v>50</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>185</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="n">
+        <v>2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" t="s">
+        <v>26</v>
+      </c>
+      <c r="I113" t="s">
+        <v>26</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.899</v>
+      </c>
+      <c r="K113" t="s">
+        <v>26</v>
+      </c>
+      <c r="L113" t="s">
+        <v>26</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>186</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="n">
+        <v>2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" t="s">
+        <v>20</v>
+      </c>
+      <c r="I114" t="s">
+        <v>20</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1.169</v>
+      </c>
+      <c r="K114" t="s">
+        <v>20</v>
+      </c>
+      <c r="L114" t="s">
+        <v>26</v>
+      </c>
+      <c r="M114" t="n">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>187</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>2</v>
+      </c>
+      <c r="G115" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" t="s">
+        <v>20</v>
+      </c>
+      <c r="I115" t="s">
+        <v>20</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="K115" t="s">
+        <v>20</v>
+      </c>
+      <c r="L115" t="s">
+        <v>50</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>188</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>20</v>
+      </c>
+      <c r="H116" t="s">
+        <v>20</v>
+      </c>
+      <c r="I116" t="s">
+        <v>20</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.042</v>
+      </c>
+      <c r="K116" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" t="s">
+        <v>27</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0.279</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>189</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="n">
+        <v>2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>20</v>
+      </c>
+      <c r="H117" t="s">
+        <v>20</v>
+      </c>
+      <c r="I117" t="s">
+        <v>20</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="K117" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" t="s">
+        <v>50</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>190</v>
+      </c>
+      <c r="B118"/>
+      <c r="C118"/>
+      <c r="D118"/>
+      <c r="E118"/>
+      <c r="F118" t="n">
         <v>1</v>
       </c>
-      <c r="G104" t="s">
-        <v>20</v>
-      </c>
-      <c r="H104" t="s">
-        <v>20</v>
-      </c>
-      <c r="I104" t="s">
-        <v>20</v>
-      </c>
-      <c r="J104" t="n">
+      <c r="G118" t="s">
+        <v>20</v>
+      </c>
+      <c r="H118" t="s">
+        <v>20</v>
+      </c>
+      <c r="I118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J118" t="n">
         <v>1</v>
       </c>
-      <c r="K104" t="s">
-        <v>20</v>
-      </c>
-      <c r="L104" t="s">
-        <v>20</v>
-      </c>
-      <c r="M104" t="n">
+      <c r="K118" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" t="s">
+        <v>20</v>
+      </c>
+      <c r="M118" t="n">
         <v>0.024</v>
       </c>
     </row>
